--- a/训练中心创客交叉融合空间建设/admin/新大楼规划建设/创客空间配套设施建设项目/采购表-500+270.xlsx
+++ b/训练中心创客交叉融合空间建设/admin/新大楼规划建设/创客空间配套设施建设项目/采购表-500+270.xlsx
@@ -14,7 +14,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'500万盘子的执行情况'!$A$3:$Q$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'教务处350（10月25日） (2)'!$A$3:$L$3</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'500万盘子的执行情况'!$A$1:$Q$168</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'500万盘子的执行情况'!$A$1:$Q$169</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'教务处350（10月25日） (2)'!$A$1:$L$129</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1446" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1448" uniqueCount="428">
   <si>
     <t>仿真软件</t>
   </si>
@@ -1974,6 +1974,14 @@
   </si>
   <si>
     <t>工具防盗标签系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高炬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工具架</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3008,16 +3016,16 @@
     <xf numFmtId="176" fontId="10" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3328,10 +3336,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:S205"/>
+  <dimension ref="A1:S206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L123" sqref="L123"/>
+    <sheetView tabSelected="1" topLeftCell="A116" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N144" sqref="N144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.25"/>
@@ -3356,32 +3364,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="172" t="s">
+      <c r="A1" s="174" t="s">
         <v>278</v>
       </c>
-      <c r="B1" s="173"/>
-      <c r="C1" s="173"/>
-      <c r="D1" s="173"/>
-      <c r="E1" s="173"/>
-      <c r="F1" s="173"/>
-      <c r="G1" s="173"/>
-      <c r="H1" s="173"/>
-      <c r="I1" s="173"/>
-      <c r="J1" s="173"/>
-      <c r="K1" s="173"/>
-      <c r="L1" s="173"/>
-      <c r="M1" s="173"/>
-      <c r="N1" s="173"/>
-      <c r="O1" s="173"/>
-      <c r="P1" s="173"/>
-      <c r="Q1" s="173"/>
+      <c r="B1" s="175"/>
+      <c r="C1" s="175"/>
+      <c r="D1" s="175"/>
+      <c r="E1" s="175"/>
+      <c r="F1" s="175"/>
+      <c r="G1" s="175"/>
+      <c r="H1" s="175"/>
+      <c r="I1" s="175"/>
+      <c r="J1" s="175"/>
+      <c r="K1" s="175"/>
+      <c r="L1" s="175"/>
+      <c r="M1" s="175"/>
+      <c r="N1" s="175"/>
+      <c r="O1" s="175"/>
+      <c r="P1" s="175"/>
+      <c r="Q1" s="175"/>
     </row>
     <row r="2" spans="1:17" ht="20.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="113" t="s">
         <v>277</v>
       </c>
       <c r="B2" s="112">
-        <f>SUM(F168)</f>
+        <f>SUM(F169)</f>
         <v>4999192</v>
       </c>
       <c r="C2" s="111"/>
@@ -4730,25 +4738,25 @@
       <c r="Q35" s="50"/>
     </row>
     <row r="36" spans="1:17" s="94" customFormat="1" ht="36.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="172" t="s">
+      <c r="A36" s="174" t="s">
         <v>193</v>
       </c>
-      <c r="B36" s="173"/>
-      <c r="C36" s="173"/>
-      <c r="D36" s="173"/>
-      <c r="E36" s="173"/>
-      <c r="F36" s="173"/>
-      <c r="G36" s="173"/>
-      <c r="H36" s="173"/>
-      <c r="I36" s="173"/>
-      <c r="J36" s="173"/>
-      <c r="K36" s="173"/>
-      <c r="L36" s="173"/>
-      <c r="M36" s="173"/>
-      <c r="N36" s="173"/>
-      <c r="O36" s="173"/>
-      <c r="P36" s="173"/>
-      <c r="Q36" s="173"/>
+      <c r="B36" s="175"/>
+      <c r="C36" s="175"/>
+      <c r="D36" s="175"/>
+      <c r="E36" s="175"/>
+      <c r="F36" s="175"/>
+      <c r="G36" s="175"/>
+      <c r="H36" s="175"/>
+      <c r="I36" s="175"/>
+      <c r="J36" s="175"/>
+      <c r="K36" s="175"/>
+      <c r="L36" s="175"/>
+      <c r="M36" s="175"/>
+      <c r="N36" s="175"/>
+      <c r="O36" s="175"/>
+      <c r="P36" s="175"/>
+      <c r="Q36" s="175"/>
     </row>
     <row r="37" spans="1:17" s="61" customFormat="1" ht="23.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="146" t="s">
@@ -6630,7 +6638,7 @@
         <v>300</v>
       </c>
       <c r="F86" s="65">
-        <f t="shared" ref="F86:F126" si="2">SUM(D86*E86)</f>
+        <f t="shared" ref="F86:F127" si="2">SUM(D86*E86)</f>
         <v>1800</v>
       </c>
       <c r="G86" s="75" t="s">
@@ -7241,7 +7249,7 @@
       <c r="P100" s="171" t="s">
         <v>386</v>
       </c>
-      <c r="Q100" s="175" t="s">
+      <c r="Q100" s="173" t="s">
         <v>415</v>
       </c>
     </row>
@@ -7382,8 +7390,8 @@
       <c r="P104" s="171" t="s">
         <v>386</v>
       </c>
-      <c r="Q104" s="175">
-        <v>0.3</v>
+      <c r="Q104" s="173">
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:19" s="61" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7409,7 +7417,7 @@
       <c r="P105" s="171" t="s">
         <v>389</v>
       </c>
-      <c r="Q105" s="175">
+      <c r="Q105" s="173">
         <v>1</v>
       </c>
     </row>
@@ -7436,7 +7444,7 @@
       <c r="P106" s="171" t="s">
         <v>391</v>
       </c>
-      <c r="Q106" s="175">
+      <c r="Q106" s="173">
         <v>1</v>
       </c>
     </row>
@@ -7463,7 +7471,7 @@
       <c r="P107" s="171" t="s">
         <v>393</v>
       </c>
-      <c r="Q107" s="175">
+      <c r="Q107" s="173">
         <v>1</v>
       </c>
     </row>
@@ -7515,7 +7523,7 @@
       <c r="P109" s="171" t="s">
         <v>416</v>
       </c>
-      <c r="Q109" s="175">
+      <c r="Q109" s="173">
         <v>1</v>
       </c>
     </row>
@@ -7871,77 +7879,60 @@
       <c r="I124" s="64"/>
       <c r="J124" s="63"/>
       <c r="K124" s="63"/>
-      <c r="L124" s="75"/>
-      <c r="M124" s="75"/>
+      <c r="L124" s="75" t="s">
+        <v>426</v>
+      </c>
+      <c r="M124" s="75" t="s">
+        <v>427</v>
+      </c>
       <c r="N124" s="158"/>
-      <c r="O124" s="158"/>
-      <c r="P124" s="159"/>
+      <c r="O124" s="158">
+        <v>1800</v>
+      </c>
+      <c r="P124" s="171"/>
       <c r="Q124" s="75"/>
     </row>
-    <row r="125" spans="1:17" s="44" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="73">
+    <row r="125" spans="1:17" s="61" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="83"/>
+      <c r="B125" s="63"/>
+      <c r="C125" s="63"/>
+      <c r="D125" s="67"/>
+      <c r="E125" s="66"/>
+      <c r="F125" s="65"/>
+      <c r="G125" s="63"/>
+      <c r="H125" s="63"/>
+      <c r="I125" s="64"/>
+      <c r="J125" s="63"/>
+      <c r="K125" s="63"/>
+      <c r="L125" s="75"/>
+      <c r="M125" s="75"/>
+      <c r="N125" s="158"/>
+      <c r="O125" s="158"/>
+      <c r="P125" s="159"/>
+      <c r="Q125" s="75"/>
+    </row>
+    <row r="126" spans="1:17" s="44" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="73">
         <v>51</v>
       </c>
-      <c r="B125" s="24" t="s">
+      <c r="B126" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="C125" s="24" t="s">
+      <c r="C126" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="D125" s="60">
+      <c r="D126" s="60">
         <v>4</v>
       </c>
-      <c r="E125" s="59">
+      <c r="E126" s="59">
         <v>40000</v>
       </c>
-      <c r="F125" s="47">
+      <c r="F126" s="47">
         <f t="shared" si="2"/>
         <v>160000</v>
       </c>
-      <c r="G125" s="24" t="s">
+      <c r="G126" s="24" t="s">
         <v>69</v>
-      </c>
-      <c r="H125" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="I125" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="J125" s="24"/>
-      <c r="K125" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="L125" s="25" t="s">
-        <v>287</v>
-      </c>
-      <c r="M125" s="25"/>
-      <c r="N125" s="160"/>
-      <c r="O125" s="160"/>
-      <c r="P125" s="161"/>
-      <c r="Q125" s="25"/>
-    </row>
-    <row r="126" spans="1:17" s="44" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="73">
-        <v>52</v>
-      </c>
-      <c r="B126" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="C126" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="D126" s="60">
-        <v>8</v>
-      </c>
-      <c r="E126" s="59">
-        <v>16500</v>
-      </c>
-      <c r="F126" s="47">
-        <f t="shared" si="2"/>
-        <v>132000</v>
-      </c>
-      <c r="G126" s="24" t="s">
-        <v>66</v>
       </c>
       <c r="H126" s="24" t="s">
         <v>65</v>
@@ -7962,192 +7953,196 @@
       <c r="P126" s="161"/>
       <c r="Q126" s="25"/>
     </row>
-    <row r="127" spans="1:17" s="44" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A127" s="51"/>
-      <c r="B127" s="51"/>
-      <c r="C127" s="51"/>
-      <c r="D127" s="52"/>
-      <c r="E127" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="F127" s="54">
-        <f>SUM(F38:F126)</f>
-        <v>3010322</v>
-      </c>
-      <c r="G127" s="53" t="s">
-        <v>62</v>
-      </c>
-      <c r="H127" s="51"/>
-      <c r="I127" s="51"/>
-      <c r="J127" s="51"/>
-      <c r="K127" s="51"/>
-      <c r="L127" s="51"/>
-      <c r="M127" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="N127" s="54">
-        <f>SUM(N38:N126)</f>
-        <v>2022956</v>
-      </c>
-      <c r="O127" s="54">
-        <f>SUM(O38:O126)</f>
-        <v>1850741.6</v>
-      </c>
-      <c r="P127" s="124"/>
-      <c r="Q127" s="50"/>
-    </row>
-    <row r="128" spans="1:17" s="44" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:17" s="44" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="73">
+        <v>52</v>
+      </c>
+      <c r="B127" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C127" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="D127" s="60">
+        <v>8</v>
+      </c>
+      <c r="E127" s="59">
+        <v>16500</v>
+      </c>
+      <c r="F127" s="47">
+        <f t="shared" si="2"/>
+        <v>132000</v>
+      </c>
+      <c r="G127" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="H127" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="I127" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="J127" s="24"/>
+      <c r="K127" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="L127" s="25" t="s">
+        <v>287</v>
+      </c>
+      <c r="M127" s="25"/>
+      <c r="N127" s="160"/>
+      <c r="O127" s="160"/>
+      <c r="P127" s="161"/>
+      <c r="Q127" s="25"/>
+    </row>
+    <row r="128" spans="1:17" s="44" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A128" s="51"/>
       <c r="B128" s="51"/>
       <c r="C128" s="51"/>
       <c r="D128" s="52"/>
-      <c r="E128" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F128" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="G128" s="51"/>
+      <c r="E128" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="F128" s="54">
+        <f>SUM(F38:F127)</f>
+        <v>3010322</v>
+      </c>
+      <c r="G128" s="53" t="s">
+        <v>62</v>
+      </c>
       <c r="H128" s="51"/>
       <c r="I128" s="51"/>
       <c r="J128" s="51"/>
       <c r="K128" s="51"/>
       <c r="L128" s="51"/>
-      <c r="M128" s="51"/>
-      <c r="N128" s="118"/>
-      <c r="O128" s="118"/>
+      <c r="M128" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="N128" s="54">
+        <f>SUM(N38:N127)</f>
+        <v>2022956</v>
+      </c>
+      <c r="O128" s="54">
+        <f>SUM(O38:O127)</f>
+        <v>1852541.6</v>
+      </c>
       <c r="P128" s="124"/>
       <c r="Q128" s="50"/>
     </row>
-    <row r="129" spans="1:17" s="44" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="172" t="s">
+    <row r="129" spans="1:17" s="44" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="51"/>
+      <c r="B129" s="51"/>
+      <c r="C129" s="51"/>
+      <c r="D129" s="52"/>
+      <c r="E129" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F129" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="G129" s="51"/>
+      <c r="H129" s="51"/>
+      <c r="I129" s="51"/>
+      <c r="J129" s="51"/>
+      <c r="K129" s="51"/>
+      <c r="L129" s="51"/>
+      <c r="M129" s="51"/>
+      <c r="N129" s="118"/>
+      <c r="O129" s="118"/>
+      <c r="P129" s="124"/>
+      <c r="Q129" s="50"/>
+    </row>
+    <row r="130" spans="1:17" s="44" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="174" t="s">
         <v>60</v>
       </c>
-      <c r="B129" s="173"/>
-      <c r="C129" s="173"/>
-      <c r="D129" s="173"/>
-      <c r="E129" s="173"/>
-      <c r="F129" s="173"/>
-      <c r="G129" s="173"/>
-      <c r="H129" s="173"/>
-      <c r="I129" s="173"/>
-      <c r="J129" s="173"/>
-      <c r="K129" s="173"/>
-      <c r="L129" s="173"/>
-      <c r="M129" s="173"/>
-      <c r="N129" s="173"/>
-      <c r="O129" s="173"/>
-      <c r="P129" s="173"/>
-      <c r="Q129" s="173"/>
-    </row>
-    <row r="130" spans="1:17" s="44" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="36" t="s">
+      <c r="B130" s="175"/>
+      <c r="C130" s="175"/>
+      <c r="D130" s="175"/>
+      <c r="E130" s="175"/>
+      <c r="F130" s="175"/>
+      <c r="G130" s="175"/>
+      <c r="H130" s="175"/>
+      <c r="I130" s="175"/>
+      <c r="J130" s="175"/>
+      <c r="K130" s="175"/>
+      <c r="L130" s="175"/>
+      <c r="M130" s="175"/>
+      <c r="N130" s="175"/>
+      <c r="O130" s="175"/>
+      <c r="P130" s="175"/>
+      <c r="Q130" s="175"/>
+    </row>
+    <row r="131" spans="1:17" s="44" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="B130" s="32" t="s">
+      <c r="B131" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="C130" s="32" t="s">
+      <c r="C131" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="D130" s="35" t="s">
+      <c r="D131" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="E130" s="33" t="s">
+      <c r="E131" s="33" t="s">
         <v>294</v>
       </c>
-      <c r="F130" s="33" t="s">
+      <c r="F131" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="G130" s="32" t="s">
+      <c r="G131" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="H130" s="32" t="s">
+      <c r="H131" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="I130" s="32" t="s">
+      <c r="I131" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="J130" s="32" t="s">
+      <c r="J131" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="K130" s="32" t="s">
+      <c r="K131" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="L130" s="114" t="s">
+      <c r="L131" s="114" t="s">
         <v>289</v>
       </c>
-      <c r="M130" s="114" t="s">
+      <c r="M131" s="114" t="s">
         <v>292</v>
       </c>
-      <c r="N130" s="115" t="s">
+      <c r="N131" s="115" t="s">
         <v>293</v>
       </c>
-      <c r="O130" s="128" t="s">
+      <c r="O131" s="128" t="s">
         <v>320</v>
       </c>
-      <c r="P130" s="121" t="s">
+      <c r="P131" s="121" t="s">
         <v>295</v>
       </c>
-      <c r="Q130" s="31" t="s">
+      <c r="Q131" s="31" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="131" spans="1:17" s="44" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="49">
-        <v>1</v>
-      </c>
-      <c r="B131" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="C131" s="25"/>
-      <c r="D131" s="48">
-        <v>100</v>
-      </c>
-      <c r="E131" s="47">
-        <v>200</v>
-      </c>
-      <c r="F131" s="47">
-        <f>SUM(D131*E131)</f>
-        <v>20000</v>
-      </c>
-      <c r="G131" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="H131" s="25"/>
-      <c r="I131" s="46" t="s">
-        <v>53</v>
-      </c>
-      <c r="J131" s="25"/>
-      <c r="K131" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="L131" s="45" t="s">
-        <v>284</v>
-      </c>
-      <c r="M131" s="45"/>
-      <c r="N131" s="117"/>
-      <c r="O131" s="117"/>
-      <c r="P131" s="123"/>
-      <c r="Q131" s="45"/>
     </row>
     <row r="132" spans="1:17" s="44" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B132" s="25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C132" s="25"/>
       <c r="D132" s="48">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E132" s="47">
         <v>200</v>
       </c>
       <c r="F132" s="47">
         <f>SUM(D132*E132)</f>
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="G132" s="25" t="s">
         <v>54</v>
@@ -8171,21 +8166,21 @@
     </row>
     <row r="133" spans="1:17" s="44" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="49">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B133" s="25" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C133" s="25"/>
       <c r="D133" s="48">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="E133" s="47">
         <v>200</v>
       </c>
       <c r="F133" s="47">
         <f>SUM(D133*E133)</f>
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="G133" s="25" t="s">
         <v>54</v>
@@ -8207,23 +8202,23 @@
       <c r="P133" s="123"/>
       <c r="Q133" s="45"/>
     </row>
-    <row r="134" spans="1:17" s="44" customFormat="1" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:17" s="44" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="49">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B134" s="25" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C134" s="25"/>
       <c r="D134" s="48">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="E134" s="47">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F134" s="47">
         <f>SUM(D134*E134)</f>
-        <v>3000</v>
+        <v>16000</v>
       </c>
       <c r="G134" s="25" t="s">
         <v>54</v>
@@ -8245,33 +8240,33 @@
       <c r="P134" s="123"/>
       <c r="Q134" s="45"/>
     </row>
-    <row r="135" spans="1:17" s="6" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="43">
-        <v>5</v>
-      </c>
-      <c r="B135" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="C135" s="17"/>
-      <c r="D135" s="42">
-        <v>50</v>
-      </c>
-      <c r="E135" s="41">
-        <v>100</v>
-      </c>
-      <c r="F135" s="41">
+    <row r="135" spans="1:17" s="44" customFormat="1" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A135" s="49">
+        <v>4</v>
+      </c>
+      <c r="B135" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C135" s="25"/>
+      <c r="D135" s="48">
+        <v>10</v>
+      </c>
+      <c r="E135" s="47">
+        <v>300</v>
+      </c>
+      <c r="F135" s="47">
         <f>SUM(D135*E135)</f>
-        <v>5000</v>
-      </c>
-      <c r="G135" s="17" t="s">
+        <v>3000</v>
+      </c>
+      <c r="G135" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="H135" s="17"/>
-      <c r="I135" s="40" t="s">
+      <c r="H135" s="25"/>
+      <c r="I135" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="J135" s="17"/>
-      <c r="K135" s="17" t="s">
+      <c r="J135" s="25"/>
+      <c r="K135" s="25" t="s">
         <v>52</v>
       </c>
       <c r="L135" s="45" t="s">
@@ -8283,196 +8278,192 @@
       <c r="P135" s="123"/>
       <c r="Q135" s="45"/>
     </row>
-    <row r="136" spans="1:17" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A136" s="5"/>
-      <c r="B136" s="5"/>
-      <c r="C136" s="2"/>
-      <c r="D136" s="4"/>
-      <c r="E136" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="F136" s="37">
-        <f>SUM(F131:F135)</f>
-        <v>54000</v>
-      </c>
-      <c r="G136" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="H136" s="2"/>
-      <c r="I136" s="2"/>
-      <c r="J136" s="2"/>
-      <c r="K136" s="2"/>
-      <c r="L136" s="2"/>
-      <c r="M136" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="N136" s="37">
-        <f>SUM(N131:N135)</f>
-        <v>0</v>
-      </c>
-      <c r="O136" s="37">
-        <f>SUM(O131:O135)</f>
-        <v>0</v>
-      </c>
-      <c r="P136" s="125"/>
-      <c r="Q136" s="1"/>
+    <row r="136" spans="1:17" s="6" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="43">
+        <v>5</v>
+      </c>
+      <c r="B136" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C136" s="17"/>
+      <c r="D136" s="42">
+        <v>50</v>
+      </c>
+      <c r="E136" s="41">
+        <v>100</v>
+      </c>
+      <c r="F136" s="41">
+        <f>SUM(D136*E136)</f>
+        <v>5000</v>
+      </c>
+      <c r="G136" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="H136" s="17"/>
+      <c r="I136" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="J136" s="17"/>
+      <c r="K136" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="L136" s="45" t="s">
+        <v>284</v>
+      </c>
+      <c r="M136" s="45"/>
+      <c r="N136" s="117"/>
+      <c r="O136" s="117"/>
+      <c r="P136" s="123"/>
+      <c r="Q136" s="45"/>
     </row>
     <row r="137" spans="1:17" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A137" s="5"/>
       <c r="B137" s="5"/>
       <c r="C137" s="2"/>
       <c r="D137" s="4"/>
-      <c r="E137" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F137" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="G137" s="9"/>
+      <c r="E137" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="F137" s="37">
+        <f>SUM(F132:F136)</f>
+        <v>54000</v>
+      </c>
+      <c r="G137" s="9" t="s">
+        <v>51</v>
+      </c>
       <c r="H137" s="2"/>
       <c r="I137" s="2"/>
       <c r="J137" s="2"/>
       <c r="K137" s="2"/>
       <c r="L137" s="2"/>
-      <c r="M137" s="2"/>
-      <c r="N137" s="119"/>
-      <c r="O137" s="119"/>
+      <c r="M137" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="N137" s="37">
+        <f>SUM(N132:N136)</f>
+        <v>0</v>
+      </c>
+      <c r="O137" s="37">
+        <f>SUM(O132:O136)</f>
+        <v>0</v>
+      </c>
       <c r="P137" s="125"/>
       <c r="Q137" s="1"/>
     </row>
-    <row r="138" spans="1:17" s="6" customFormat="1" ht="32.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="172" t="s">
+    <row r="138" spans="1:17" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A138" s="5"/>
+      <c r="B138" s="5"/>
+      <c r="C138" s="2"/>
+      <c r="D138" s="4"/>
+      <c r="E138" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F138" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G138" s="9"/>
+      <c r="H138" s="2"/>
+      <c r="I138" s="2"/>
+      <c r="J138" s="2"/>
+      <c r="K138" s="2"/>
+      <c r="L138" s="2"/>
+      <c r="M138" s="2"/>
+      <c r="N138" s="119"/>
+      <c r="O138" s="119"/>
+      <c r="P138" s="125"/>
+      <c r="Q138" s="1"/>
+    </row>
+    <row r="139" spans="1:17" s="6" customFormat="1" ht="32.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="174" t="s">
         <v>49</v>
       </c>
-      <c r="B138" s="173"/>
-      <c r="C138" s="173"/>
-      <c r="D138" s="173"/>
-      <c r="E138" s="173"/>
-      <c r="F138" s="173"/>
-      <c r="G138" s="173"/>
-      <c r="H138" s="173"/>
-      <c r="I138" s="173"/>
-      <c r="J138" s="173"/>
-      <c r="K138" s="173"/>
-      <c r="L138" s="173"/>
-      <c r="M138" s="173"/>
-      <c r="N138" s="173"/>
-      <c r="O138" s="173"/>
-      <c r="P138" s="173"/>
-      <c r="Q138" s="173"/>
-    </row>
-    <row r="139" spans="1:17" s="6" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="36" t="s">
+      <c r="B139" s="175"/>
+      <c r="C139" s="175"/>
+      <c r="D139" s="175"/>
+      <c r="E139" s="175"/>
+      <c r="F139" s="175"/>
+      <c r="G139" s="175"/>
+      <c r="H139" s="175"/>
+      <c r="I139" s="175"/>
+      <c r="J139" s="175"/>
+      <c r="K139" s="175"/>
+      <c r="L139" s="175"/>
+      <c r="M139" s="175"/>
+      <c r="N139" s="175"/>
+      <c r="O139" s="175"/>
+      <c r="P139" s="175"/>
+      <c r="Q139" s="175"/>
+    </row>
+    <row r="140" spans="1:17" s="6" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="B139" s="32" t="s">
+      <c r="B140" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="C139" s="32" t="s">
+      <c r="C140" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="D139" s="35" t="s">
+      <c r="D140" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="E139" s="33" t="s">
+      <c r="E140" s="33" t="s">
         <v>294</v>
       </c>
-      <c r="F139" s="33" t="s">
+      <c r="F140" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="G139" s="32" t="s">
+      <c r="G140" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="H139" s="32" t="s">
+      <c r="H140" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="I139" s="32" t="s">
+      <c r="I140" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="J139" s="32" t="s">
+      <c r="J140" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="K139" s="32" t="s">
+      <c r="K140" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="L139" s="114" t="s">
+      <c r="L140" s="114" t="s">
         <v>290</v>
       </c>
-      <c r="M139" s="114" t="s">
+      <c r="M140" s="114" t="s">
         <v>292</v>
       </c>
-      <c r="N139" s="115" t="s">
+      <c r="N140" s="115" t="s">
         <v>293</v>
       </c>
-      <c r="O139" s="128" t="s">
+      <c r="O140" s="128" t="s">
         <v>320</v>
       </c>
-      <c r="P139" s="121" t="s">
+      <c r="P140" s="121" t="s">
         <v>295</v>
       </c>
-      <c r="Q139" s="31" t="s">
+      <c r="Q140" s="31" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="140" spans="1:17" s="6" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="30">
-        <v>1</v>
-      </c>
-      <c r="B140" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="C140" s="25"/>
-      <c r="D140" s="29">
-        <v>1</v>
-      </c>
-      <c r="E140" s="28">
-        <v>261000</v>
-      </c>
-      <c r="F140" s="27">
-        <f t="shared" ref="F140:F145" si="3">SUM(D140*E140)</f>
-        <v>261000</v>
-      </c>
-      <c r="G140" s="26"/>
-      <c r="H140" s="25"/>
-      <c r="I140" s="25"/>
-      <c r="J140" s="25"/>
-      <c r="K140" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="L140" s="23" t="s">
-        <v>288</v>
-      </c>
-      <c r="M140" s="23" t="s">
-        <v>367</v>
-      </c>
-      <c r="N140" s="120">
-        <v>204000</v>
-      </c>
-      <c r="O140" s="120"/>
-      <c r="P140" s="170" t="s">
-        <v>368</v>
-      </c>
-      <c r="Q140" s="23" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="141" spans="1:17" s="6" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B141" s="29" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C141" s="25"/>
       <c r="D141" s="29">
         <v>1</v>
       </c>
       <c r="E141" s="28">
-        <v>88000</v>
+        <v>261000</v>
       </c>
       <c r="F141" s="27">
-        <f t="shared" si="3"/>
-        <v>88000</v>
+        <f t="shared" ref="F141:F146" si="3">SUM(D141*E141)</f>
+        <v>261000</v>
       </c>
       <c r="G141" s="26"/>
       <c r="H141" s="25"/>
@@ -8484,29 +8475,37 @@
       <c r="L141" s="23" t="s">
         <v>288</v>
       </c>
-      <c r="M141" s="23"/>
-      <c r="N141" s="120"/>
+      <c r="M141" s="23" t="s">
+        <v>367</v>
+      </c>
+      <c r="N141" s="120">
+        <v>204000</v>
+      </c>
       <c r="O141" s="120"/>
-      <c r="P141" s="126"/>
-      <c r="Q141" s="23"/>
+      <c r="P141" s="170" t="s">
+        <v>368</v>
+      </c>
+      <c r="Q141" s="23" t="s">
+        <v>413</v>
+      </c>
     </row>
     <row r="142" spans="1:17" s="6" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B142" s="29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C142" s="25"/>
       <c r="D142" s="29">
         <v>1</v>
       </c>
       <c r="E142" s="28">
-        <v>78000</v>
+        <v>88000</v>
       </c>
       <c r="F142" s="27">
         <f t="shared" si="3"/>
-        <v>78000</v>
+        <v>88000</v>
       </c>
       <c r="G142" s="26"/>
       <c r="H142" s="25"/>
@@ -8518,37 +8517,29 @@
       <c r="L142" s="23" t="s">
         <v>288</v>
       </c>
-      <c r="M142" s="23" t="s">
-        <v>372</v>
-      </c>
-      <c r="N142" s="120">
-        <v>40000</v>
-      </c>
+      <c r="M142" s="23"/>
+      <c r="N142" s="120"/>
       <c r="O142" s="120"/>
-      <c r="P142" s="170" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q142" s="23" t="s">
-        <v>371</v>
-      </c>
+      <c r="P142" s="126"/>
+      <c r="Q142" s="23"/>
     </row>
     <row r="143" spans="1:17" s="6" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B143" s="29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C143" s="25"/>
       <c r="D143" s="29">
         <v>1</v>
       </c>
       <c r="E143" s="28">
-        <v>182000</v>
+        <v>78000</v>
       </c>
       <c r="F143" s="27">
         <f t="shared" si="3"/>
-        <v>182000</v>
+        <v>78000</v>
       </c>
       <c r="G143" s="26"/>
       <c r="H143" s="25"/>
@@ -8561,14 +8552,14 @@
         <v>288</v>
       </c>
       <c r="M143" s="23" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="N143" s="120">
-        <v>43700</v>
+        <v>40000</v>
       </c>
       <c r="O143" s="120"/>
       <c r="P143" s="170" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="Q143" s="23" t="s">
         <v>371</v>
@@ -8576,21 +8567,21 @@
     </row>
     <row r="144" spans="1:17" s="6" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="30">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B144" s="29" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C144" s="25"/>
       <c r="D144" s="29">
         <v>1</v>
       </c>
       <c r="E144" s="28">
-        <v>86000</v>
+        <v>182000</v>
       </c>
       <c r="F144" s="27">
         <f t="shared" si="3"/>
-        <v>86000</v>
+        <v>182000</v>
       </c>
       <c r="G144" s="26"/>
       <c r="H144" s="25"/>
@@ -8603,87 +8594,100 @@
         <v>288</v>
       </c>
       <c r="M144" s="23" t="s">
-        <v>412</v>
-      </c>
-      <c r="N144" s="120"/>
+        <v>369</v>
+      </c>
+      <c r="N144" s="120">
+        <v>43700</v>
+      </c>
       <c r="O144" s="120"/>
-      <c r="P144" s="126"/>
-      <c r="Q144" s="23"/>
-    </row>
-    <row r="145" spans="1:17" s="6" customFormat="1" ht="18.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="22">
+      <c r="P144" s="170" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q144" s="23" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="145" spans="1:17" s="6" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="30">
+        <v>5</v>
+      </c>
+      <c r="B145" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B145" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="C145" s="17"/>
-      <c r="D145" s="21">
+      <c r="C145" s="25"/>
+      <c r="D145" s="29">
         <v>1</v>
       </c>
-      <c r="E145" s="20">
-        <v>5000</v>
-      </c>
-      <c r="F145" s="19">
+      <c r="E145" s="28">
+        <v>86000</v>
+      </c>
+      <c r="F145" s="27">
         <f t="shared" si="3"/>
-        <v>5000</v>
-      </c>
-      <c r="G145" s="18"/>
-      <c r="H145" s="17"/>
-      <c r="I145" s="17"/>
-      <c r="J145" s="17"/>
-      <c r="K145" s="16" t="s">
+        <v>86000</v>
+      </c>
+      <c r="G145" s="26"/>
+      <c r="H145" s="25"/>
+      <c r="I145" s="25"/>
+      <c r="J145" s="25"/>
+      <c r="K145" s="24" t="s">
         <v>23</v>
       </c>
       <c r="L145" s="23" t="s">
         <v>288</v>
       </c>
-      <c r="M145" s="23"/>
+      <c r="M145" s="23" t="s">
+        <v>412</v>
+      </c>
       <c r="N145" s="120"/>
       <c r="O145" s="120"/>
       <c r="P145" s="126"/>
       <c r="Q145" s="23"/>
     </row>
-    <row r="146" spans="1:17" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A146" s="5"/>
-      <c r="B146" s="5"/>
-      <c r="C146" s="2"/>
-      <c r="D146" s="4"/>
-      <c r="E146" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="F146" s="13">
-        <f>SUM(F140:F145)</f>
-        <v>700000</v>
-      </c>
-      <c r="G146" s="9"/>
-      <c r="H146" s="2"/>
-      <c r="I146" s="2"/>
-      <c r="J146" s="2"/>
-      <c r="K146" s="2"/>
-      <c r="L146" s="2"/>
-      <c r="M146" s="2"/>
-      <c r="N146" s="13">
-        <f>SUM(N140:N145)</f>
-        <v>287700</v>
-      </c>
-      <c r="O146" s="13">
-        <f>SUM(O140:O145)</f>
-        <v>0</v>
-      </c>
-      <c r="P146" s="125"/>
-      <c r="Q146" s="1"/>
+    <row r="146" spans="1:17" s="6" customFormat="1" ht="18.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="22">
+        <v>6</v>
+      </c>
+      <c r="B146" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C146" s="17"/>
+      <c r="D146" s="21">
+        <v>1</v>
+      </c>
+      <c r="E146" s="20">
+        <v>5000</v>
+      </c>
+      <c r="F146" s="19">
+        <f t="shared" si="3"/>
+        <v>5000</v>
+      </c>
+      <c r="G146" s="18"/>
+      <c r="H146" s="17"/>
+      <c r="I146" s="17"/>
+      <c r="J146" s="17"/>
+      <c r="K146" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="L146" s="23" t="s">
+        <v>288</v>
+      </c>
+      <c r="M146" s="23"/>
+      <c r="N146" s="120"/>
+      <c r="O146" s="120"/>
+      <c r="P146" s="126"/>
+      <c r="Q146" s="23"/>
     </row>
     <row r="147" spans="1:17" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A147" s="5"/>
       <c r="B147" s="5"/>
       <c r="C147" s="2"/>
       <c r="D147" s="4"/>
-      <c r="E147" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F147" s="11" t="s">
-        <v>37</v>
+      <c r="E147" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F147" s="13">
+        <f>SUM(F141:F146)</f>
+        <v>700000</v>
       </c>
       <c r="G147" s="9"/>
       <c r="H147" s="2"/>
@@ -8692,144 +8696,131 @@
       <c r="K147" s="2"/>
       <c r="L147" s="2"/>
       <c r="M147" s="2"/>
-      <c r="N147" s="119"/>
-      <c r="O147" s="119"/>
+      <c r="N147" s="13">
+        <f>SUM(N141:N146)</f>
+        <v>287700</v>
+      </c>
+      <c r="O147" s="13">
+        <f>SUM(O141:O146)</f>
+        <v>0</v>
+      </c>
       <c r="P147" s="125"/>
       <c r="Q147" s="1"/>
     </row>
-    <row r="148" spans="1:17" s="6" customFormat="1" ht="32.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="172" t="s">
+    <row r="148" spans="1:17" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A148" s="5"/>
+      <c r="B148" s="5"/>
+      <c r="C148" s="2"/>
+      <c r="D148" s="4"/>
+      <c r="E148" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F148" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G148" s="9"/>
+      <c r="H148" s="2"/>
+      <c r="I148" s="2"/>
+      <c r="J148" s="2"/>
+      <c r="K148" s="2"/>
+      <c r="L148" s="2"/>
+      <c r="M148" s="2"/>
+      <c r="N148" s="119"/>
+      <c r="O148" s="119"/>
+      <c r="P148" s="125"/>
+      <c r="Q148" s="1"/>
+    </row>
+    <row r="149" spans="1:17" s="6" customFormat="1" ht="32.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="174" t="s">
         <v>48</v>
       </c>
-      <c r="B148" s="173"/>
-      <c r="C148" s="173"/>
-      <c r="D148" s="173"/>
-      <c r="E148" s="173"/>
-      <c r="F148" s="173"/>
-      <c r="G148" s="173"/>
-      <c r="H148" s="173"/>
-      <c r="I148" s="173"/>
-      <c r="J148" s="173"/>
-      <c r="K148" s="173"/>
-      <c r="L148" s="173"/>
-      <c r="M148" s="173"/>
-      <c r="N148" s="173"/>
-      <c r="O148" s="173"/>
-      <c r="P148" s="173"/>
-      <c r="Q148" s="173"/>
-    </row>
-    <row r="149" spans="1:17" s="6" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="36" t="s">
+      <c r="B149" s="175"/>
+      <c r="C149" s="175"/>
+      <c r="D149" s="175"/>
+      <c r="E149" s="175"/>
+      <c r="F149" s="175"/>
+      <c r="G149" s="175"/>
+      <c r="H149" s="175"/>
+      <c r="I149" s="175"/>
+      <c r="J149" s="175"/>
+      <c r="K149" s="175"/>
+      <c r="L149" s="175"/>
+      <c r="M149" s="175"/>
+      <c r="N149" s="175"/>
+      <c r="O149" s="175"/>
+      <c r="P149" s="175"/>
+      <c r="Q149" s="175"/>
+    </row>
+    <row r="150" spans="1:17" s="6" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="B149" s="32" t="s">
+      <c r="B150" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="C149" s="32" t="s">
+      <c r="C150" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="D149" s="35" t="s">
+      <c r="D150" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="E149" s="33" t="s">
+      <c r="E150" s="33" t="s">
         <v>294</v>
       </c>
-      <c r="F149" s="33" t="s">
+      <c r="F150" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="G149" s="32" t="s">
+      <c r="G150" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="H149" s="32" t="s">
+      <c r="H150" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="I149" s="32" t="s">
+      <c r="I150" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="J149" s="32" t="s">
+      <c r="J150" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="K149" s="32" t="s">
+      <c r="K150" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="L149" s="114" t="s">
+      <c r="L150" s="114" t="s">
         <v>289</v>
       </c>
-      <c r="M149" s="114" t="s">
+      <c r="M150" s="114" t="s">
         <v>292</v>
       </c>
-      <c r="N149" s="115" t="s">
+      <c r="N150" s="115" t="s">
         <v>293</v>
       </c>
-      <c r="O149" s="128" t="s">
+      <c r="O150" s="128" t="s">
         <v>320</v>
       </c>
-      <c r="P149" s="121" t="s">
+      <c r="P150" s="121" t="s">
         <v>295</v>
       </c>
-      <c r="Q149" s="31" t="s">
+      <c r="Q150" s="31" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="150" spans="1:17" s="6" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="30">
-        <v>1</v>
-      </c>
-      <c r="B150" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="C150" s="25"/>
-      <c r="D150" s="29">
-        <v>1</v>
-      </c>
-      <c r="E150" s="28">
-        <v>210000</v>
-      </c>
-      <c r="F150" s="27">
-        <f t="shared" ref="F150:F155" si="4">SUM(D150*E150)</f>
-        <v>210000</v>
-      </c>
-      <c r="G150" s="26"/>
-      <c r="H150" s="25"/>
-      <c r="I150" s="25"/>
-      <c r="J150" s="25"/>
-      <c r="K150" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="L150" s="23" t="s">
-        <v>286</v>
-      </c>
-      <c r="M150" s="23" t="s">
-        <v>380</v>
-      </c>
-      <c r="N150" s="120">
-        <v>286350</v>
-      </c>
-      <c r="O150" s="120"/>
-      <c r="P150" s="170" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q150" s="23" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="151" spans="1:17" s="6" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B151" s="29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C151" s="25"/>
       <c r="D151" s="29">
         <v>1</v>
       </c>
       <c r="E151" s="28">
-        <v>160000</v>
+        <v>210000</v>
       </c>
       <c r="F151" s="27">
-        <f t="shared" si="4"/>
-        <v>160000</v>
+        <f t="shared" ref="F151:F156" si="4">SUM(D151*E151)</f>
+        <v>210000</v>
       </c>
       <c r="G151" s="26"/>
       <c r="H151" s="25"/>
@@ -8842,36 +8833,36 @@
         <v>286</v>
       </c>
       <c r="M151" s="23" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="N151" s="120">
-        <v>48592.4</v>
+        <v>286350</v>
       </c>
       <c r="O151" s="120"/>
       <c r="P151" s="170" t="s">
-        <v>375</v>
-      </c>
-      <c r="Q151" s="174">
-        <v>0.3</v>
+        <v>382</v>
+      </c>
+      <c r="Q151" s="23" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="152" spans="1:17" s="6" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B152" s="29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C152" s="25"/>
       <c r="D152" s="29">
         <v>1</v>
       </c>
       <c r="E152" s="28">
-        <v>83000</v>
+        <v>160000</v>
       </c>
       <c r="F152" s="27">
         <f t="shared" si="4"/>
-        <v>83000</v>
+        <v>160000</v>
       </c>
       <c r="G152" s="26"/>
       <c r="H152" s="25"/>
@@ -8884,36 +8875,36 @@
         <v>286</v>
       </c>
       <c r="M152" s="23" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="N152" s="120">
-        <v>42899.9</v>
+        <v>48592.4</v>
       </c>
       <c r="O152" s="120"/>
       <c r="P152" s="170" t="s">
-        <v>379</v>
-      </c>
-      <c r="Q152" s="174">
+        <v>375</v>
+      </c>
+      <c r="Q152" s="172">
         <v>0.3</v>
       </c>
     </row>
     <row r="153" spans="1:17" s="6" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B153" s="29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C153" s="25"/>
       <c r="D153" s="29">
         <v>1</v>
       </c>
       <c r="E153" s="28">
-        <v>167000</v>
+        <v>83000</v>
       </c>
       <c r="F153" s="27">
         <f t="shared" si="4"/>
-        <v>167000</v>
+        <v>83000</v>
       </c>
       <c r="G153" s="26"/>
       <c r="H153" s="25"/>
@@ -8926,30 +8917,36 @@
         <v>286</v>
       </c>
       <c r="M153" s="23" t="s">
-        <v>418</v>
-      </c>
-      <c r="N153" s="120"/>
+        <v>378</v>
+      </c>
+      <c r="N153" s="120">
+        <v>42899.9</v>
+      </c>
       <c r="O153" s="120"/>
-      <c r="P153" s="170"/>
-      <c r="Q153" s="23"/>
+      <c r="P153" s="170" t="s">
+        <v>379</v>
+      </c>
+      <c r="Q153" s="172">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="154" spans="1:17" s="6" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="30">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B154" s="29" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C154" s="25"/>
       <c r="D154" s="29">
         <v>1</v>
       </c>
       <c r="E154" s="28">
-        <v>78000</v>
+        <v>167000</v>
       </c>
       <c r="F154" s="27">
         <f t="shared" si="4"/>
-        <v>78000</v>
+        <v>167000</v>
       </c>
       <c r="G154" s="26"/>
       <c r="H154" s="25"/>
@@ -8962,95 +8959,100 @@
         <v>286</v>
       </c>
       <c r="M154" s="23" t="s">
+        <v>418</v>
+      </c>
+      <c r="N154" s="120"/>
+      <c r="O154" s="120"/>
+      <c r="P154" s="170"/>
+      <c r="Q154" s="23"/>
+    </row>
+    <row r="155" spans="1:17" s="6" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="30">
+        <v>5</v>
+      </c>
+      <c r="B155" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C155" s="25"/>
+      <c r="D155" s="29">
+        <v>1</v>
+      </c>
+      <c r="E155" s="28">
+        <v>78000</v>
+      </c>
+      <c r="F155" s="27">
+        <f t="shared" si="4"/>
+        <v>78000</v>
+      </c>
+      <c r="G155" s="26"/>
+      <c r="H155" s="25"/>
+      <c r="I155" s="25"/>
+      <c r="J155" s="25"/>
+      <c r="K155" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="L155" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="M155" s="23" t="s">
         <v>376</v>
       </c>
-      <c r="N154" s="120">
+      <c r="N155" s="120">
         <v>45878.400000000001</v>
       </c>
-      <c r="O154" s="120"/>
-      <c r="P154" s="170" t="s">
+      <c r="O155" s="120"/>
+      <c r="P155" s="170" t="s">
         <v>377</v>
       </c>
-      <c r="Q154" s="174">
+      <c r="Q155" s="172">
         <v>0.3</v>
       </c>
     </row>
-    <row r="155" spans="1:17" s="6" customFormat="1" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="22">
+    <row r="156" spans="1:17" s="6" customFormat="1" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="22">
         <v>6</v>
       </c>
-      <c r="B155" s="21" t="s">
+      <c r="B156" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C155" s="17"/>
-      <c r="D155" s="21">
+      <c r="C156" s="17"/>
+      <c r="D156" s="21">
         <v>1</v>
       </c>
-      <c r="E155" s="20">
+      <c r="E156" s="20">
         <v>5000</v>
       </c>
-      <c r="F155" s="19">
+      <c r="F156" s="19">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="G155" s="18"/>
-      <c r="H155" s="17"/>
-      <c r="I155" s="17"/>
-      <c r="J155" s="17"/>
-      <c r="K155" s="16" t="s">
+      <c r="G156" s="18"/>
+      <c r="H156" s="17"/>
+      <c r="I156" s="17"/>
+      <c r="J156" s="17"/>
+      <c r="K156" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="L155" s="23" t="s">
+      <c r="L156" s="23" t="s">
         <v>286</v>
       </c>
-      <c r="M155" s="23"/>
-      <c r="N155" s="120"/>
-      <c r="O155" s="120"/>
-      <c r="P155" s="126"/>
-      <c r="Q155" s="23"/>
-    </row>
-    <row r="156" spans="1:17" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A156" s="5"/>
-      <c r="B156" s="5"/>
-      <c r="C156" s="2"/>
-      <c r="D156" s="4"/>
-      <c r="E156" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="F156" s="13">
-        <f>SUM(F150:F155)</f>
-        <v>703000</v>
-      </c>
-      <c r="G156" s="9"/>
-      <c r="H156" s="2"/>
-      <c r="I156" s="2"/>
-      <c r="J156" s="2"/>
-      <c r="K156" s="2"/>
-      <c r="L156" s="2"/>
-      <c r="M156" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="N156" s="13">
-        <f>SUM(N150:N155)</f>
-        <v>423720.70000000007</v>
-      </c>
-      <c r="O156" s="13">
-        <f>SUM(O150:O155)</f>
-        <v>0</v>
-      </c>
-      <c r="P156" s="125"/>
-      <c r="Q156" s="1"/>
+      <c r="M156" s="23"/>
+      <c r="N156" s="120"/>
+      <c r="O156" s="120"/>
+      <c r="P156" s="126"/>
+      <c r="Q156" s="23"/>
     </row>
     <row r="157" spans="1:17" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A157" s="5"/>
       <c r="B157" s="5"/>
       <c r="C157" s="2"/>
       <c r="D157" s="4"/>
-      <c r="E157" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F157" s="11" t="s">
-        <v>37</v>
+      <c r="E157" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F157" s="13">
+        <f>SUM(F151:F156)</f>
+        <v>703000</v>
       </c>
       <c r="G157" s="9"/>
       <c r="H157" s="2"/>
@@ -9058,137 +9060,134 @@
       <c r="J157" s="2"/>
       <c r="K157" s="2"/>
       <c r="L157" s="2"/>
-      <c r="M157" s="2"/>
-      <c r="N157" s="119"/>
-      <c r="O157" s="119"/>
+      <c r="M157" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="N157" s="13">
+        <f>SUM(N151:N156)</f>
+        <v>423720.70000000007</v>
+      </c>
+      <c r="O157" s="13">
+        <f>SUM(O151:O156)</f>
+        <v>0</v>
+      </c>
       <c r="P157" s="125"/>
       <c r="Q157" s="1"/>
     </row>
-    <row r="158" spans="1:17" s="6" customFormat="1" ht="32.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="172" t="s">
+    <row r="158" spans="1:17" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A158" s="5"/>
+      <c r="B158" s="5"/>
+      <c r="C158" s="2"/>
+      <c r="D158" s="4"/>
+      <c r="E158" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F158" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G158" s="9"/>
+      <c r="H158" s="2"/>
+      <c r="I158" s="2"/>
+      <c r="J158" s="2"/>
+      <c r="K158" s="2"/>
+      <c r="L158" s="2"/>
+      <c r="M158" s="2"/>
+      <c r="N158" s="119"/>
+      <c r="O158" s="119"/>
+      <c r="P158" s="125"/>
+      <c r="Q158" s="1"/>
+    </row>
+    <row r="159" spans="1:17" s="6" customFormat="1" ht="32.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="174" t="s">
         <v>36</v>
       </c>
-      <c r="B158" s="173"/>
-      <c r="C158" s="173"/>
-      <c r="D158" s="173"/>
-      <c r="E158" s="173"/>
-      <c r="F158" s="173"/>
-      <c r="G158" s="173"/>
-      <c r="H158" s="173"/>
-      <c r="I158" s="173"/>
-      <c r="J158" s="173"/>
-      <c r="K158" s="173"/>
-      <c r="L158" s="173"/>
-      <c r="M158" s="173"/>
-      <c r="N158" s="173"/>
-      <c r="O158" s="173"/>
-      <c r="P158" s="173"/>
-      <c r="Q158" s="173"/>
-    </row>
-    <row r="159" spans="1:17" s="6" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="36" t="s">
+      <c r="B159" s="175"/>
+      <c r="C159" s="175"/>
+      <c r="D159" s="175"/>
+      <c r="E159" s="175"/>
+      <c r="F159" s="175"/>
+      <c r="G159" s="175"/>
+      <c r="H159" s="175"/>
+      <c r="I159" s="175"/>
+      <c r="J159" s="175"/>
+      <c r="K159" s="175"/>
+      <c r="L159" s="175"/>
+      <c r="M159" s="175"/>
+      <c r="N159" s="175"/>
+      <c r="O159" s="175"/>
+      <c r="P159" s="175"/>
+      <c r="Q159" s="175"/>
+    </row>
+    <row r="160" spans="1:17" s="6" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="B159" s="32" t="s">
+      <c r="B160" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="C159" s="32" t="s">
+      <c r="C160" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="D159" s="35" t="s">
+      <c r="D160" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="E159" s="33" t="s">
+      <c r="E160" s="33" t="s">
         <v>294</v>
       </c>
-      <c r="F159" s="33" t="s">
+      <c r="F160" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="G159" s="32" t="s">
+      <c r="G160" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="H159" s="32" t="s">
+      <c r="H160" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="I159" s="32" t="s">
+      <c r="I160" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="J159" s="32" t="s">
+      <c r="J160" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="K159" s="32" t="s">
+      <c r="K160" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="L159" s="114" t="s">
+      <c r="L160" s="114" t="s">
         <v>289</v>
       </c>
-      <c r="M159" s="114" t="s">
+      <c r="M160" s="114" t="s">
         <v>292</v>
       </c>
-      <c r="N159" s="127" t="s">
+      <c r="N160" s="127" t="s">
         <v>291</v>
       </c>
-      <c r="O159" s="128" t="s">
+      <c r="O160" s="128" t="s">
         <v>320</v>
       </c>
-      <c r="P159" s="121" t="s">
+      <c r="P160" s="121" t="s">
         <v>295</v>
       </c>
-      <c r="Q159" s="31" t="s">
+      <c r="Q160" s="31" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="160" spans="1:17" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="30">
-        <v>1</v>
-      </c>
-      <c r="B160" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="C160" s="25"/>
-      <c r="D160" s="29">
-        <v>1</v>
-      </c>
-      <c r="E160" s="28">
-        <v>19300</v>
-      </c>
-      <c r="F160" s="27">
-        <f>SUM(D160*E160)</f>
-        <v>19300</v>
-      </c>
-      <c r="G160" s="26"/>
-      <c r="H160" s="25"/>
-      <c r="I160" s="25"/>
-      <c r="J160" s="25"/>
-      <c r="K160" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="L160" s="23" t="s">
-        <v>286</v>
-      </c>
-      <c r="M160" s="23"/>
-      <c r="N160" s="120"/>
-      <c r="O160" s="120"/>
-      <c r="P160" s="126"/>
-      <c r="Q160" s="23"/>
     </row>
     <row r="161" spans="1:17" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B161" s="29" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C161" s="25"/>
       <c r="D161" s="29">
         <v>1</v>
       </c>
       <c r="E161" s="28">
-        <v>28400</v>
+        <v>19300</v>
       </c>
       <c r="F161" s="27">
         <f>SUM(D161*E161)</f>
-        <v>28400</v>
+        <v>19300</v>
       </c>
       <c r="G161" s="26"/>
       <c r="H161" s="25"/>
@@ -9208,21 +9207,21 @@
     </row>
     <row r="162" spans="1:17" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B162" s="29" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C162" s="25"/>
       <c r="D162" s="29">
         <v>1</v>
       </c>
       <c r="E162" s="28">
-        <v>30000</v>
+        <v>28400</v>
       </c>
       <c r="F162" s="27">
         <f>SUM(D162*E162)</f>
-        <v>30000</v>
+        <v>28400</v>
       </c>
       <c r="G162" s="26"/>
       <c r="H162" s="25"/>
@@ -9240,29 +9239,29 @@
       <c r="P162" s="126"/>
       <c r="Q162" s="23"/>
     </row>
-    <row r="163" spans="1:17" s="6" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="22">
-        <v>4</v>
-      </c>
-      <c r="B163" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C163" s="17"/>
-      <c r="D163" s="21">
+    <row r="163" spans="1:17" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="30">
+        <v>3</v>
+      </c>
+      <c r="B163" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="E163" s="20">
-        <v>23000</v>
-      </c>
-      <c r="F163" s="19">
+      <c r="C163" s="25"/>
+      <c r="D163" s="29">
+        <v>1</v>
+      </c>
+      <c r="E163" s="28">
+        <v>30000</v>
+      </c>
+      <c r="F163" s="27">
         <f>SUM(D163*E163)</f>
-        <v>23000</v>
-      </c>
-      <c r="G163" s="18"/>
-      <c r="H163" s="17"/>
-      <c r="I163" s="17"/>
-      <c r="J163" s="17"/>
-      <c r="K163" s="16" t="s">
+        <v>30000</v>
+      </c>
+      <c r="G163" s="26"/>
+      <c r="H163" s="25"/>
+      <c r="I163" s="25"/>
+      <c r="J163" s="25"/>
+      <c r="K163" s="24" t="s">
         <v>23</v>
       </c>
       <c r="L163" s="23" t="s">
@@ -9274,48 +9273,51 @@
       <c r="P163" s="126"/>
       <c r="Q163" s="23"/>
     </row>
-    <row r="164" spans="1:17" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A164" s="5"/>
-      <c r="B164"/>
-      <c r="C164" s="2"/>
-      <c r="D164"/>
-      <c r="E164" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="F164" s="13">
-        <f>SUM(F160:F163)</f>
-        <v>100700</v>
-      </c>
-      <c r="G164" s="9"/>
-      <c r="H164" s="2"/>
-      <c r="I164" s="2"/>
-      <c r="J164" s="2"/>
-      <c r="K164" s="2"/>
-      <c r="L164" s="2"/>
-      <c r="M164" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="N164" s="13">
-        <f>SUM(N160:N163)</f>
+    <row r="164" spans="1:17" s="6" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A164" s="22">
+        <v>4</v>
+      </c>
+      <c r="B164" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="O164" s="13">
-        <f>SUM(O160:O163)</f>
-        <v>0</v>
-      </c>
-      <c r="P164" s="125"/>
-      <c r="Q164" s="1"/>
+      <c r="C164" s="17"/>
+      <c r="D164" s="21">
+        <v>1</v>
+      </c>
+      <c r="E164" s="20">
+        <v>23000</v>
+      </c>
+      <c r="F164" s="19">
+        <f>SUM(D164*E164)</f>
+        <v>23000</v>
+      </c>
+      <c r="G164" s="18"/>
+      <c r="H164" s="17"/>
+      <c r="I164" s="17"/>
+      <c r="J164" s="17"/>
+      <c r="K164" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="L164" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="M164" s="23"/>
+      <c r="N164" s="120"/>
+      <c r="O164" s="120"/>
+      <c r="P164" s="126"/>
+      <c r="Q164" s="23"/>
     </row>
     <row r="165" spans="1:17" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A165" s="5"/>
       <c r="B165"/>
       <c r="C165" s="2"/>
       <c r="D165"/>
-      <c r="E165" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F165" s="11" t="s">
-        <v>20</v>
+      <c r="E165" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F165" s="13">
+        <f>SUM(F161:F164)</f>
+        <v>100700</v>
       </c>
       <c r="G165" s="9"/>
       <c r="H165" s="2"/>
@@ -9323,19 +9325,31 @@
       <c r="J165" s="2"/>
       <c r="K165" s="2"/>
       <c r="L165" s="2"/>
-      <c r="M165" s="2"/>
-      <c r="N165" s="119"/>
-      <c r="O165" s="119"/>
+      <c r="M165" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="N165" s="13">
+        <f>SUM(N161:N164)</f>
+        <v>0</v>
+      </c>
+      <c r="O165" s="13">
+        <f>SUM(O161:O164)</f>
+        <v>0</v>
+      </c>
       <c r="P165" s="125"/>
       <c r="Q165" s="1"/>
     </row>
     <row r="166" spans="1:17" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A166" s="5"/>
-      <c r="B166" s="5"/>
+      <c r="B166"/>
       <c r="C166" s="2"/>
-      <c r="D166" s="4"/>
-      <c r="E166" s="10"/>
-      <c r="F166" s="3"/>
+      <c r="D166"/>
+      <c r="E166" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F166" s="11" t="s">
+        <v>20</v>
+      </c>
       <c r="G166" s="9"/>
       <c r="H166" s="2"/>
       <c r="I166" s="2"/>
@@ -9348,14 +9362,14 @@
       <c r="P166" s="125"/>
       <c r="Q166" s="1"/>
     </row>
-    <row r="167" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:17" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A167" s="5"/>
       <c r="B167" s="5"/>
       <c r="C167" s="2"/>
       <c r="D167" s="4"/>
-      <c r="E167" s="3"/>
+      <c r="E167" s="10"/>
       <c r="F167" s="3"/>
-      <c r="G167" s="2"/>
+      <c r="G167" s="9"/>
       <c r="H167" s="2"/>
       <c r="I167" s="2"/>
       <c r="J167" s="2"/>
@@ -9367,54 +9381,54 @@
       <c r="P167" s="125"/>
       <c r="Q167" s="1"/>
     </row>
-    <row r="168" spans="1:17" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168" s="5"/>
       <c r="B168" s="5"/>
       <c r="C168" s="2"/>
       <c r="D168" s="4"/>
-      <c r="E168" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F168" s="7">
-        <f>SUM(F33+F127+F136+F146+F156+F164)</f>
-        <v>4999192</v>
-      </c>
+      <c r="E168" s="3"/>
+      <c r="F168" s="3"/>
       <c r="G168" s="2"/>
       <c r="H168" s="2"/>
       <c r="I168" s="2"/>
       <c r="J168" s="2"/>
       <c r="K168" s="2"/>
       <c r="L168" s="2"/>
-      <c r="M168" s="8" t="s">
-        <v>381</v>
-      </c>
-      <c r="N168" s="7">
-        <f>SUM(N33+N127+N136+N146+N156+N164)</f>
-        <v>3124158.7</v>
-      </c>
-      <c r="O168" s="7">
-        <f>SUM(O33+O127+O136+O146+O156+O164)</f>
-        <v>1850741.6</v>
-      </c>
+      <c r="M168" s="2"/>
+      <c r="N168" s="119"/>
+      <c r="O168" s="119"/>
       <c r="P168" s="125"/>
       <c r="Q168" s="1"/>
     </row>
-    <row r="169" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:17" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A169" s="5"/>
       <c r="B169" s="5"/>
       <c r="C169" s="2"/>
       <c r="D169" s="4"/>
-      <c r="E169" s="3"/>
-      <c r="F169" s="3"/>
+      <c r="E169" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F169" s="7">
+        <f>SUM(F33+F128+F137+F147+F157+F165)</f>
+        <v>4999192</v>
+      </c>
       <c r="G169" s="2"/>
       <c r="H169" s="2"/>
       <c r="I169" s="2"/>
       <c r="J169" s="2"/>
       <c r="K169" s="2"/>
       <c r="L169" s="2"/>
-      <c r="M169" s="2"/>
-      <c r="N169" s="119"/>
-      <c r="O169" s="119"/>
+      <c r="M169" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="N169" s="7">
+        <f>SUM(N33+N128+N137+N147+N157+N165)</f>
+        <v>3124158.7</v>
+      </c>
+      <c r="O169" s="7">
+        <f>SUM(O33+O128+O137+O147+O157+O165)</f>
+        <v>1852541.6</v>
+      </c>
       <c r="P169" s="125"/>
       <c r="Q169" s="1"/>
     </row>
@@ -9647,13 +9661,13 @@
       <c r="Q181" s="1"/>
     </row>
     <row r="182" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A182"/>
-      <c r="B182"/>
-      <c r="C182"/>
-      <c r="D182"/>
-      <c r="E182"/>
-      <c r="F182"/>
-      <c r="G182"/>
+      <c r="A182" s="5"/>
+      <c r="B182" s="5"/>
+      <c r="C182" s="2"/>
+      <c r="D182" s="4"/>
+      <c r="E182" s="3"/>
+      <c r="F182" s="3"/>
+      <c r="G182" s="2"/>
       <c r="H182" s="2"/>
       <c r="I182" s="2"/>
       <c r="J182" s="2"/>
@@ -9667,9 +9681,7 @@
     </row>
     <row r="183" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A183"/>
-      <c r="B183" t="s">
-        <v>18</v>
-      </c>
+      <c r="B183"/>
       <c r="C183"/>
       <c r="D183"/>
       <c r="E183"/>
@@ -9689,20 +9701,12 @@
     <row r="184" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A184"/>
       <c r="B184" t="s">
-        <v>17</v>
-      </c>
-      <c r="C184" t="s">
-        <v>16</v>
-      </c>
-      <c r="D184" t="s">
-        <v>15</v>
-      </c>
-      <c r="E184" t="s">
-        <v>14</v>
-      </c>
-      <c r="F184" t="s">
-        <v>13</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="C184"/>
+      <c r="D184"/>
+      <c r="E184"/>
+      <c r="F184"/>
       <c r="G184"/>
       <c r="H184" s="2"/>
       <c r="I184" s="2"/>
@@ -9717,23 +9721,22 @@
     </row>
     <row r="185" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A185"/>
-      <c r="B185">
-        <v>1</v>
+      <c r="B185" t="s">
+        <v>17</v>
       </c>
       <c r="C185" t="s">
-        <v>12</v>
-      </c>
-      <c r="D185">
-        <v>1</v>
-      </c>
-      <c r="E185">
-        <v>261000</v>
-      </c>
-      <c r="F185"/>
-      <c r="G185">
-        <f>E185*F185</f>
-        <v>0</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="D185" t="s">
+        <v>15</v>
+      </c>
+      <c r="E185" t="s">
+        <v>14</v>
+      </c>
+      <c r="F185" t="s">
+        <v>13</v>
+      </c>
+      <c r="G185"/>
       <c r="H185" s="2"/>
       <c r="I185" s="2"/>
       <c r="J185" s="2"/>
@@ -9748,16 +9751,16 @@
     <row r="186" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A186"/>
       <c r="B186">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C186" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D186">
         <v>1</v>
       </c>
       <c r="E186">
-        <v>88000</v>
+        <v>261000</v>
       </c>
       <c r="F186"/>
       <c r="G186">
@@ -9778,20 +9781,21 @@
     <row r="187" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A187"/>
       <c r="B187">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C187" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D187">
         <v>1</v>
       </c>
       <c r="E187">
-        <v>78000</v>
+        <v>88000</v>
       </c>
       <c r="F187"/>
       <c r="G187">
-        <v>75400</v>
+        <f>E187*F187</f>
+        <v>0</v>
       </c>
       <c r="H187" s="2"/>
       <c r="I187" s="2"/>
@@ -9807,21 +9811,20 @@
     <row r="188" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A188"/>
       <c r="B188">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C188" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D188">
         <v>1</v>
       </c>
       <c r="E188">
-        <v>182000</v>
+        <v>78000</v>
       </c>
       <c r="F188"/>
       <c r="G188">
-        <f>E188*F188</f>
-        <v>0</v>
+        <v>75400</v>
       </c>
       <c r="H188" s="2"/>
       <c r="I188" s="2"/>
@@ -9837,16 +9840,16 @@
     <row r="189" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A189"/>
       <c r="B189">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C189" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D189">
         <v>1</v>
       </c>
       <c r="E189">
-        <v>86000</v>
+        <v>182000</v>
       </c>
       <c r="F189"/>
       <c r="G189">
@@ -9867,16 +9870,16 @@
     <row r="190" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A190"/>
       <c r="B190">
+        <v>5</v>
+      </c>
+      <c r="C190" t="s">
         <v>6</v>
-      </c>
-      <c r="C190" t="s">
-        <v>5</v>
       </c>
       <c r="D190">
         <v>1</v>
       </c>
       <c r="E190">
-        <v>5000</v>
+        <v>86000</v>
       </c>
       <c r="F190"/>
       <c r="G190">
@@ -9894,234 +9897,252 @@
       <c r="P190" s="125"/>
       <c r="Q190" s="1"/>
     </row>
-    <row r="191" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A191"/>
-      <c r="B191" t="s">
-        <v>11</v>
-      </c>
-      <c r="C191"/>
-      <c r="D191"/>
-      <c r="E191"/>
+      <c r="B191">
+        <v>6</v>
+      </c>
+      <c r="C191" t="s">
+        <v>5</v>
+      </c>
+      <c r="D191">
+        <v>1</v>
+      </c>
+      <c r="E191">
+        <v>5000</v>
+      </c>
       <c r="F191"/>
       <c r="G191">
-        <f>SUM(G185:G190)</f>
-        <v>75400</v>
-      </c>
+        <f>E191*F191</f>
+        <v>0</v>
+      </c>
+      <c r="H191" s="2"/>
+      <c r="I191" s="2"/>
+      <c r="J191" s="2"/>
+      <c r="K191" s="2"/>
+      <c r="L191" s="2"/>
+      <c r="M191" s="2"/>
+      <c r="N191" s="119"/>
+      <c r="O191" s="119"/>
+      <c r="P191" s="125"/>
+      <c r="Q191" s="1"/>
     </row>
     <row r="192" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A192"/>
-      <c r="B192">
-        <v>1</v>
-      </c>
-      <c r="C192" t="s">
-        <v>10</v>
-      </c>
-      <c r="D192">
-        <v>1</v>
-      </c>
-      <c r="E192">
-        <v>210000</v>
-      </c>
+      <c r="B192" t="s">
+        <v>11</v>
+      </c>
+      <c r="C192"/>
+      <c r="D192"/>
+      <c r="E192"/>
       <c r="F192"/>
       <c r="G192">
-        <v>210000</v>
+        <f>SUM(G186:G191)</f>
+        <v>75400</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193"/>
       <c r="B193">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C193" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D193">
         <v>1</v>
       </c>
       <c r="E193">
-        <v>160000</v>
+        <v>210000</v>
       </c>
       <c r="F193"/>
       <c r="G193">
-        <v>160000</v>
+        <v>210000</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194"/>
       <c r="B194">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C194" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D194">
         <v>1</v>
       </c>
       <c r="E194">
-        <v>83000</v>
+        <v>160000</v>
       </c>
       <c r="F194"/>
       <c r="G194">
-        <v>83000</v>
+        <v>160000</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195"/>
       <c r="B195">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C195" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D195">
         <v>1</v>
       </c>
       <c r="E195">
-        <v>167000</v>
+        <v>83000</v>
       </c>
       <c r="F195"/>
       <c r="G195">
-        <v>167000</v>
+        <v>83000</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196"/>
       <c r="B196">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C196" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D196">
         <v>1</v>
       </c>
       <c r="E196">
-        <v>78000</v>
+        <v>167000</v>
       </c>
       <c r="F196"/>
       <c r="G196">
-        <v>78000</v>
+        <v>167000</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197"/>
       <c r="B197">
+        <v>5</v>
+      </c>
+      <c r="C197" t="s">
         <v>6</v>
-      </c>
-      <c r="C197" t="s">
-        <v>5</v>
       </c>
       <c r="D197">
         <v>1</v>
       </c>
       <c r="E197">
-        <v>5000</v>
+        <v>78000</v>
       </c>
       <c r="F197"/>
       <c r="G197">
-        <v>5000</v>
+        <v>78000</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198"/>
-      <c r="B198" t="s">
-        <v>4</v>
-      </c>
-      <c r="C198"/>
-      <c r="D198"/>
-      <c r="E198"/>
+      <c r="B198">
+        <v>6</v>
+      </c>
+      <c r="C198" t="s">
+        <v>5</v>
+      </c>
+      <c r="D198">
+        <v>1</v>
+      </c>
+      <c r="E198">
+        <v>5000</v>
+      </c>
       <c r="F198"/>
       <c r="G198">
-        <f>SUM(G192:G197)</f>
-        <v>703000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199"/>
-      <c r="B199">
-        <v>1</v>
-      </c>
-      <c r="C199" t="s">
-        <v>3</v>
-      </c>
-      <c r="D199">
-        <v>9</v>
-      </c>
-      <c r="E199">
-        <v>19300</v>
-      </c>
+      <c r="B199" t="s">
+        <v>4</v>
+      </c>
+      <c r="C199"/>
+      <c r="D199"/>
+      <c r="E199"/>
       <c r="F199"/>
       <c r="G199">
-        <v>19300</v>
+        <f>SUM(G193:G198)</f>
+        <v>703000</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200"/>
       <c r="B200">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C200" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D200">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E200">
-        <v>28400</v>
+        <v>19300</v>
       </c>
       <c r="F200"/>
       <c r="G200">
-        <v>28400</v>
+        <v>19300</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201"/>
       <c r="B201">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C201" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D201">
         <v>1</v>
       </c>
       <c r="E201">
-        <v>30000</v>
+        <v>28400</v>
       </c>
       <c r="F201"/>
       <c r="G201">
-        <v>30000</v>
+        <v>28400</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202"/>
       <c r="B202">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C202" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D202">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E202">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="F202"/>
       <c r="G202">
-        <v>23000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203"/>
-      <c r="B203"/>
-      <c r="C203"/>
-      <c r="D203"/>
-      <c r="E203"/>
+      <c r="B203">
+        <v>4</v>
+      </c>
+      <c r="C203" t="s">
+        <v>0</v>
+      </c>
+      <c r="D203">
+        <v>3</v>
+      </c>
+      <c r="E203">
+        <v>23000</v>
+      </c>
       <c r="F203"/>
       <c r="G203">
-        <f>SUM(G199:G202)</f>
-        <v>100700</v>
+        <v>23000</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
@@ -10131,7 +10152,10 @@
       <c r="D204"/>
       <c r="E204"/>
       <c r="F204"/>
-      <c r="G204"/>
+      <c r="G204">
+        <f>SUM(G200:G203)</f>
+        <v>100700</v>
+      </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205"/>
@@ -10140,20 +10164,29 @@
       <c r="D205"/>
       <c r="E205"/>
       <c r="F205"/>
-      <c r="G205">
-        <f>SUM(G203,G198,G191)</f>
+      <c r="G205"/>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A206"/>
+      <c r="B206"/>
+      <c r="C206"/>
+      <c r="D206"/>
+      <c r="E206"/>
+      <c r="F206"/>
+      <c r="G206">
+        <f>SUM(G204,G199,G192)</f>
         <v>879100</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A3:Q3"/>
   <mergeCells count="6">
-    <mergeCell ref="A138:Q138"/>
-    <mergeCell ref="A148:Q148"/>
-    <mergeCell ref="A158:Q158"/>
+    <mergeCell ref="A139:Q139"/>
+    <mergeCell ref="A149:Q149"/>
+    <mergeCell ref="A159:Q159"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A36:Q36"/>
-    <mergeCell ref="A129:Q129"/>
+    <mergeCell ref="A130:Q130"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10808,20 +10841,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="172" t="s">
+      <c r="A1" s="174" t="s">
         <v>278</v>
       </c>
-      <c r="B1" s="173"/>
-      <c r="C1" s="173"/>
-      <c r="D1" s="173"/>
-      <c r="E1" s="173"/>
-      <c r="F1" s="173"/>
-      <c r="G1" s="173"/>
-      <c r="H1" s="173"/>
-      <c r="I1" s="173"/>
-      <c r="J1" s="173"/>
-      <c r="K1" s="173"/>
-      <c r="L1" s="173"/>
+      <c r="B1" s="175"/>
+      <c r="C1" s="175"/>
+      <c r="D1" s="175"/>
+      <c r="E1" s="175"/>
+      <c r="F1" s="175"/>
+      <c r="G1" s="175"/>
+      <c r="H1" s="175"/>
+      <c r="I1" s="175"/>
+      <c r="J1" s="175"/>
+      <c r="K1" s="175"/>
+      <c r="L1" s="175"/>
     </row>
     <row r="2" spans="1:12" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="113" t="s">
@@ -11843,20 +11876,20 @@
       <c r="L33" s="50"/>
     </row>
     <row r="34" spans="1:12" s="94" customFormat="1" ht="36.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="172" t="s">
+      <c r="A34" s="174" t="s">
         <v>193</v>
       </c>
-      <c r="B34" s="173"/>
-      <c r="C34" s="173"/>
-      <c r="D34" s="173"/>
-      <c r="E34" s="173"/>
-      <c r="F34" s="173"/>
-      <c r="G34" s="173"/>
-      <c r="H34" s="173"/>
-      <c r="I34" s="173"/>
-      <c r="J34" s="173"/>
-      <c r="K34" s="173"/>
-      <c r="L34" s="173"/>
+      <c r="B34" s="175"/>
+      <c r="C34" s="175"/>
+      <c r="D34" s="175"/>
+      <c r="E34" s="175"/>
+      <c r="F34" s="175"/>
+      <c r="G34" s="175"/>
+      <c r="H34" s="175"/>
+      <c r="I34" s="175"/>
+      <c r="J34" s="175"/>
+      <c r="K34" s="175"/>
+      <c r="L34" s="175"/>
     </row>
     <row r="35" spans="1:12" s="61" customFormat="1" ht="23.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="93" t="s">
@@ -13660,20 +13693,20 @@
       <c r="L89" s="50"/>
     </row>
     <row r="90" spans="1:12" s="44" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="172" t="s">
+      <c r="A90" s="174" t="s">
         <v>60</v>
       </c>
-      <c r="B90" s="173"/>
-      <c r="C90" s="173"/>
-      <c r="D90" s="173"/>
-      <c r="E90" s="173"/>
-      <c r="F90" s="173"/>
-      <c r="G90" s="173"/>
-      <c r="H90" s="173"/>
-      <c r="I90" s="173"/>
-      <c r="J90" s="173"/>
-      <c r="K90" s="173"/>
-      <c r="L90" s="173"/>
+      <c r="B90" s="175"/>
+      <c r="C90" s="175"/>
+      <c r="D90" s="175"/>
+      <c r="E90" s="175"/>
+      <c r="F90" s="175"/>
+      <c r="G90" s="175"/>
+      <c r="H90" s="175"/>
+      <c r="I90" s="175"/>
+      <c r="J90" s="175"/>
+      <c r="K90" s="175"/>
+      <c r="L90" s="175"/>
     </row>
     <row r="91" spans="1:12" s="44" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="36" t="s">
@@ -13908,20 +13941,20 @@
       <c r="L98" s="1"/>
     </row>
     <row r="99" spans="1:12" s="6" customFormat="1" ht="32.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="172" t="s">
+      <c r="A99" s="174" t="s">
         <v>49</v>
       </c>
-      <c r="B99" s="173"/>
-      <c r="C99" s="173"/>
-      <c r="D99" s="173"/>
-      <c r="E99" s="173"/>
-      <c r="F99" s="173"/>
-      <c r="G99" s="173"/>
-      <c r="H99" s="173"/>
-      <c r="I99" s="173"/>
-      <c r="J99" s="173"/>
-      <c r="K99" s="173"/>
-      <c r="L99" s="173"/>
+      <c r="B99" s="175"/>
+      <c r="C99" s="175"/>
+      <c r="D99" s="175"/>
+      <c r="E99" s="175"/>
+      <c r="F99" s="175"/>
+      <c r="G99" s="175"/>
+      <c r="H99" s="175"/>
+      <c r="I99" s="175"/>
+      <c r="J99" s="175"/>
+      <c r="K99" s="175"/>
+      <c r="L99" s="175"/>
     </row>
     <row r="100" spans="1:12" s="6" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="36" t="s">
@@ -14161,20 +14194,20 @@
       <c r="L108" s="1"/>
     </row>
     <row r="109" spans="1:12" s="6" customFormat="1" ht="32.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="172" t="s">
+      <c r="A109" s="174" t="s">
         <v>48</v>
       </c>
-      <c r="B109" s="173"/>
-      <c r="C109" s="173"/>
-      <c r="D109" s="173"/>
-      <c r="E109" s="173"/>
-      <c r="F109" s="173"/>
-      <c r="G109" s="173"/>
-      <c r="H109" s="173"/>
-      <c r="I109" s="173"/>
-      <c r="J109" s="173"/>
-      <c r="K109" s="173"/>
-      <c r="L109" s="173"/>
+      <c r="B109" s="175"/>
+      <c r="C109" s="175"/>
+      <c r="D109" s="175"/>
+      <c r="E109" s="175"/>
+      <c r="F109" s="175"/>
+      <c r="G109" s="175"/>
+      <c r="H109" s="175"/>
+      <c r="I109" s="175"/>
+      <c r="J109" s="175"/>
+      <c r="K109" s="175"/>
+      <c r="L109" s="175"/>
     </row>
     <row r="110" spans="1:12" s="6" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="36" t="s">
@@ -14414,20 +14447,20 @@
       <c r="L118" s="1"/>
     </row>
     <row r="119" spans="1:12" s="6" customFormat="1" ht="32.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="172" t="s">
+      <c r="A119" s="174" t="s">
         <v>36</v>
       </c>
-      <c r="B119" s="173"/>
-      <c r="C119" s="173"/>
-      <c r="D119" s="173"/>
-      <c r="E119" s="173"/>
-      <c r="F119" s="173"/>
-      <c r="G119" s="173"/>
-      <c r="H119" s="173"/>
-      <c r="I119" s="173"/>
-      <c r="J119" s="173"/>
-      <c r="K119" s="173"/>
-      <c r="L119" s="173"/>
+      <c r="B119" s="175"/>
+      <c r="C119" s="175"/>
+      <c r="D119" s="175"/>
+      <c r="E119" s="175"/>
+      <c r="F119" s="175"/>
+      <c r="G119" s="175"/>
+      <c r="H119" s="175"/>
+      <c r="I119" s="175"/>
+      <c r="J119" s="175"/>
+      <c r="K119" s="175"/>
+      <c r="L119" s="175"/>
     </row>
     <row r="120" spans="1:12" s="6" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="36" t="s">

--- a/训练中心创客交叉融合空间建设/admin/新大楼规划建设/创客空间配套设施建设项目/采购表-500+270.xlsx
+++ b/训练中心创客交叉融合空间建设/admin/新大楼规划建设/创客空间配套设施建设项目/采购表-500+270.xlsx
@@ -14,7 +14,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'500万+200万的盘子执行情况'!$A$3:$Q$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'教务处350（10月25日）'!$A$3:$L$3</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'500万+200万的盘子执行情况'!$A$1:$Q$183</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'500万+200万的盘子执行情况'!$A$1:$Q$184</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'教务处350（10月25日）'!$A$1:$L$129</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1471" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1476" uniqueCount="502">
   <si>
     <t>仿真软件</t>
   </si>
@@ -2212,10 +2212,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>机械制造及材料成型笔记本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>媒体无线投射系统</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2231,29 +2227,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>等发票-办30%转款</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等发票-办30%转款</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等合同及发票-30%</t>
-  </si>
-  <si>
-    <t>等合同及发票-30%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等合同及发票-30%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等合同及发票-30%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>合同待签字、待上账</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2274,10 +2247,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>等合同及发票-30%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>智能门禁——298000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2299,6 +2268,50 @@
   </si>
   <si>
     <t>蓝海华业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同已交、待上账</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>借款-待上账</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>借款-等合同-待上账</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金智华教</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>借款-待上账</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>材料成型笔记本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机械制造笔记本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洽谈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姚启明接管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨兴华接管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨兴华接管</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3469,25 +3482,25 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="45" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3798,10 +3811,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:S220"/>
+  <dimension ref="A1:S221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D108" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q137" sqref="Q137"/>
+    <sheetView tabSelected="1" topLeftCell="A132" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q108" sqref="Q108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.25"/>
@@ -3826,32 +3839,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="197" t="s">
+      <c r="A1" s="202" t="s">
         <v>278</v>
       </c>
-      <c r="B1" s="198"/>
-      <c r="C1" s="198"/>
-      <c r="D1" s="198"/>
-      <c r="E1" s="198"/>
-      <c r="F1" s="198"/>
-      <c r="G1" s="198"/>
-      <c r="H1" s="198"/>
-      <c r="I1" s="198"/>
-      <c r="J1" s="198"/>
-      <c r="K1" s="198"/>
-      <c r="L1" s="198"/>
-      <c r="M1" s="198"/>
-      <c r="N1" s="198"/>
-      <c r="O1" s="198"/>
-      <c r="P1" s="198"/>
-      <c r="Q1" s="198"/>
+      <c r="B1" s="203"/>
+      <c r="C1" s="203"/>
+      <c r="D1" s="203"/>
+      <c r="E1" s="203"/>
+      <c r="F1" s="203"/>
+      <c r="G1" s="203"/>
+      <c r="H1" s="203"/>
+      <c r="I1" s="203"/>
+      <c r="J1" s="203"/>
+      <c r="K1" s="203"/>
+      <c r="L1" s="203"/>
+      <c r="M1" s="203"/>
+      <c r="N1" s="203"/>
+      <c r="O1" s="203"/>
+      <c r="P1" s="203"/>
+      <c r="Q1" s="203"/>
     </row>
     <row r="2" spans="1:17" ht="20.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="113" t="s">
         <v>277</v>
       </c>
       <c r="B2" s="112">
-        <f>SUM(F183)</f>
+        <f>SUM(F184)</f>
         <v>4999192</v>
       </c>
       <c r="C2" s="111"/>
@@ -5204,25 +5217,25 @@
       <c r="Q35" s="50"/>
     </row>
     <row r="36" spans="1:17" s="94" customFormat="1" ht="36.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="197" t="s">
+      <c r="A36" s="202" t="s">
         <v>193</v>
       </c>
-      <c r="B36" s="198"/>
-      <c r="C36" s="198"/>
-      <c r="D36" s="198"/>
-      <c r="E36" s="198"/>
-      <c r="F36" s="198"/>
-      <c r="G36" s="198"/>
-      <c r="H36" s="198"/>
-      <c r="I36" s="198"/>
-      <c r="J36" s="198"/>
-      <c r="K36" s="198"/>
-      <c r="L36" s="198"/>
-      <c r="M36" s="198"/>
-      <c r="N36" s="198"/>
-      <c r="O36" s="198"/>
-      <c r="P36" s="198"/>
-      <c r="Q36" s="198"/>
+      <c r="B36" s="203"/>
+      <c r="C36" s="203"/>
+      <c r="D36" s="203"/>
+      <c r="E36" s="203"/>
+      <c r="F36" s="203"/>
+      <c r="G36" s="203"/>
+      <c r="H36" s="203"/>
+      <c r="I36" s="203"/>
+      <c r="J36" s="203"/>
+      <c r="K36" s="203"/>
+      <c r="L36" s="203"/>
+      <c r="M36" s="203"/>
+      <c r="N36" s="203"/>
+      <c r="O36" s="203"/>
+      <c r="P36" s="203"/>
+      <c r="Q36" s="203"/>
     </row>
     <row r="37" spans="1:17" s="61" customFormat="1" ht="23.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="132" t="s">
@@ -7104,7 +7117,7 @@
         <v>300</v>
       </c>
       <c r="F86" s="65">
-        <f t="shared" ref="F86:F141" si="2">SUM(D86*E86)</f>
+        <f t="shared" ref="F86:F142" si="2">SUM(D86*E86)</f>
         <v>1800</v>
       </c>
       <c r="G86" s="75" t="s">
@@ -7873,7 +7886,9 @@
       <c r="P107" s="153" t="s">
         <v>368</v>
       </c>
-      <c r="Q107" s="75"/>
+      <c r="Q107" s="154">
+        <v>1</v>
+      </c>
     </row>
     <row r="108" spans="1:19" s="69" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="83">
@@ -7999,7 +8014,9 @@
       </c>
       <c r="O110" s="144"/>
       <c r="P110" s="145"/>
-      <c r="Q110" s="75"/>
+      <c r="Q110" s="154">
+        <v>1</v>
+      </c>
     </row>
     <row r="111" spans="1:19" s="61" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="83">
@@ -8170,7 +8187,9 @@
       <c r="P116" s="153" t="s">
         <v>404</v>
       </c>
-      <c r="Q116" s="75"/>
+      <c r="Q116" s="154">
+        <v>1</v>
+      </c>
     </row>
     <row r="117" spans="1:17" s="61" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="83"/>
@@ -8223,7 +8242,7 @@
         <v>395</v>
       </c>
       <c r="Q118" s="154">
-        <v>1</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="119" spans="1:17" s="61" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8250,7 +8269,7 @@
         <v>395</v>
       </c>
       <c r="Q119" s="154">
-        <v>1</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="120" spans="1:17" s="61" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8277,7 +8296,7 @@
         <v>395</v>
       </c>
       <c r="Q120" s="154">
-        <v>1</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="121" spans="1:17" s="61" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8304,7 +8323,7 @@
         <v>395</v>
       </c>
       <c r="Q121" s="154">
-        <v>1</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="122" spans="1:17" s="61" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8331,7 +8350,7 @@
         <v>395</v>
       </c>
       <c r="Q122" s="154">
-        <v>1</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="123" spans="1:17" s="61" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8358,7 +8377,7 @@
         <v>395</v>
       </c>
       <c r="Q123" s="154">
-        <v>1</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="124" spans="1:17" s="61" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8385,7 +8404,7 @@
         <v>395</v>
       </c>
       <c r="Q124" s="154">
-        <v>1</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="125" spans="1:17" s="61" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8412,7 +8431,7 @@
         <v>392</v>
       </c>
       <c r="Q125" s="75" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
     </row>
     <row r="126" spans="1:17" s="61" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8439,7 +8458,7 @@
         <v>393</v>
       </c>
       <c r="Q126" s="75" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
     </row>
     <row r="127" spans="1:17" s="61" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8457,7 +8476,7 @@
       <c r="L127" s="75" t="s">
         <v>286</v>
       </c>
-      <c r="M127" s="203" t="s">
+      <c r="M127" s="201" t="s">
         <v>402</v>
       </c>
       <c r="N127" s="144"/>
@@ -8465,7 +8484,7 @@
         <v>20800</v>
       </c>
       <c r="P127" s="153" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="Q127" s="154">
         <v>1</v>
@@ -8497,7 +8516,7 @@
         <v>404</v>
       </c>
       <c r="Q128" s="75" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
     </row>
     <row r="129" spans="1:17" s="61" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8546,7 +8565,9 @@
         <v>40000</v>
       </c>
       <c r="P130" s="153"/>
-      <c r="Q130" s="75"/>
+      <c r="Q130" s="75" t="s">
+        <v>498</v>
+      </c>
     </row>
     <row r="131" spans="1:17" s="61" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="83"/>
@@ -8571,7 +8592,9 @@
         <v>45000</v>
       </c>
       <c r="P131" s="153"/>
-      <c r="Q131" s="75"/>
+      <c r="Q131" s="75" t="s">
+        <v>499</v>
+      </c>
     </row>
     <row r="132" spans="1:17" s="61" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="83"/>
@@ -8596,7 +8619,9 @@
         <v>1800</v>
       </c>
       <c r="P132" s="153"/>
-      <c r="Q132" s="75"/>
+      <c r="Q132" s="75" t="s">
+        <v>498</v>
+      </c>
     </row>
     <row r="133" spans="1:17" s="61" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="83"/>
@@ -8619,7 +8644,9 @@
         <v>150000</v>
       </c>
       <c r="P133" s="153"/>
-      <c r="Q133" s="75"/>
+      <c r="Q133" s="75" t="s">
+        <v>500</v>
+      </c>
     </row>
     <row r="134" spans="1:17" s="61" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="83"/>
@@ -8635,12 +8662,12 @@
       <c r="K134" s="63"/>
       <c r="L134" s="75"/>
       <c r="M134" s="75" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="N134" s="144"/>
       <c r="O134" s="167"/>
       <c r="P134" s="153" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="Q134" s="75" t="s">
         <v>445</v>
@@ -8660,12 +8687,12 @@
       <c r="K135" s="63"/>
       <c r="L135" s="75"/>
       <c r="M135" s="75" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="N135" s="144"/>
       <c r="O135" s="167"/>
       <c r="P135" s="153" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="Q135" s="75" t="s">
         <v>445</v>
@@ -8692,7 +8719,9 @@
       </c>
       <c r="O136" s="144"/>
       <c r="P136" s="153"/>
-      <c r="Q136" s="75"/>
+      <c r="Q136" s="75" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="137" spans="1:17" s="61" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="83"/>
@@ -8710,14 +8739,18 @@
         <v>429</v>
       </c>
       <c r="M137" s="75" t="s">
-        <v>476</v>
+        <v>497</v>
       </c>
       <c r="N137" s="144"/>
       <c r="O137" s="144">
-        <v>25000</v>
-      </c>
-      <c r="P137" s="153"/>
-      <c r="Q137" s="75"/>
+        <v>9988</v>
+      </c>
+      <c r="P137" s="153" t="s">
+        <v>494</v>
+      </c>
+      <c r="Q137" s="75" t="s">
+        <v>495</v>
+      </c>
     </row>
     <row r="138" spans="1:17" s="61" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="83"/>
@@ -8733,17 +8766,17 @@
       <c r="K138" s="63"/>
       <c r="L138" s="75"/>
       <c r="M138" s="75" t="s">
-        <v>497</v>
-      </c>
-      <c r="N138" s="144">
-        <v>40000</v>
-      </c>
-      <c r="O138" s="144"/>
+        <v>496</v>
+      </c>
+      <c r="N138" s="144"/>
+      <c r="O138" s="144">
+        <v>9988</v>
+      </c>
       <c r="P138" s="153" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="Q138" s="75" t="s">
-        <v>483</v>
+        <v>495</v>
       </c>
     </row>
     <row r="139" spans="1:17" s="61" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8759,76 +8792,61 @@
       <c r="J139" s="63"/>
       <c r="K139" s="63"/>
       <c r="L139" s="75"/>
-      <c r="M139" s="75"/>
-      <c r="N139" s="144"/>
+      <c r="M139" s="75" t="s">
+        <v>489</v>
+      </c>
+      <c r="N139" s="144">
+        <v>40000</v>
+      </c>
       <c r="O139" s="144"/>
-      <c r="P139" s="145"/>
-      <c r="Q139" s="75"/>
-    </row>
-    <row r="140" spans="1:17" s="44" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="73">
+      <c r="P139" s="153" t="s">
+        <v>490</v>
+      </c>
+      <c r="Q139" s="75" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="140" spans="1:17" s="61" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="83"/>
+      <c r="B140" s="63"/>
+      <c r="C140" s="63"/>
+      <c r="D140" s="67"/>
+      <c r="E140" s="66"/>
+      <c r="F140" s="65"/>
+      <c r="G140" s="63"/>
+      <c r="H140" s="63"/>
+      <c r="I140" s="64"/>
+      <c r="J140" s="63"/>
+      <c r="K140" s="63"/>
+      <c r="L140" s="75"/>
+      <c r="M140" s="75"/>
+      <c r="N140" s="144"/>
+      <c r="O140" s="144"/>
+      <c r="P140" s="145"/>
+      <c r="Q140" s="75"/>
+    </row>
+    <row r="141" spans="1:17" s="44" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="73">
         <v>51</v>
       </c>
-      <c r="B140" s="24" t="s">
+      <c r="B141" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="C140" s="24" t="s">
+      <c r="C141" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="D140" s="60">
+      <c r="D141" s="60">
         <v>4</v>
       </c>
-      <c r="E140" s="59">
+      <c r="E141" s="59">
         <v>40000</v>
       </c>
-      <c r="F140" s="47">
+      <c r="F141" s="47">
         <f t="shared" si="2"/>
         <v>160000</v>
       </c>
-      <c r="G140" s="24" t="s">
+      <c r="G141" s="24" t="s">
         <v>69</v>
-      </c>
-      <c r="H140" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="I140" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="J140" s="24"/>
-      <c r="K140" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="L140" s="25" t="s">
-        <v>287</v>
-      </c>
-      <c r="M140" s="25"/>
-      <c r="N140" s="146"/>
-      <c r="O140" s="146"/>
-      <c r="P140" s="147"/>
-      <c r="Q140" s="25"/>
-    </row>
-    <row r="141" spans="1:17" s="44" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="73">
-        <v>52</v>
-      </c>
-      <c r="B141" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="C141" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="D141" s="60">
-        <v>8</v>
-      </c>
-      <c r="E141" s="59">
-        <v>16500</v>
-      </c>
-      <c r="F141" s="47">
-        <f t="shared" si="2"/>
-        <v>132000</v>
-      </c>
-      <c r="G141" s="24" t="s">
-        <v>66</v>
       </c>
       <c r="H141" s="24" t="s">
         <v>65</v>
@@ -8849,192 +8867,196 @@
       <c r="P141" s="147"/>
       <c r="Q141" s="25"/>
     </row>
-    <row r="142" spans="1:17" s="44" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A142" s="51"/>
-      <c r="B142" s="51"/>
-      <c r="C142" s="51"/>
-      <c r="D142" s="52"/>
-      <c r="E142" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="F142" s="54">
-        <f>SUM(F38:F141)</f>
-        <v>3010322</v>
-      </c>
-      <c r="G142" s="53" t="s">
-        <v>62</v>
-      </c>
-      <c r="H142" s="51"/>
-      <c r="I142" s="51"/>
-      <c r="J142" s="51"/>
-      <c r="K142" s="51"/>
-      <c r="L142" s="51"/>
-      <c r="M142" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="N142" s="54">
-        <f>SUM(N38:N141)</f>
-        <v>3337556</v>
-      </c>
-      <c r="O142" s="54">
-        <f>SUM(O38:O141)</f>
-        <v>1817541.6</v>
-      </c>
-      <c r="P142" s="124"/>
-      <c r="Q142" s="50"/>
-    </row>
-    <row r="143" spans="1:17" s="44" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:17" s="44" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="73">
+        <v>52</v>
+      </c>
+      <c r="B142" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C142" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="D142" s="60">
+        <v>8</v>
+      </c>
+      <c r="E142" s="59">
+        <v>16500</v>
+      </c>
+      <c r="F142" s="47">
+        <f t="shared" si="2"/>
+        <v>132000</v>
+      </c>
+      <c r="G142" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="H142" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="I142" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="J142" s="24"/>
+      <c r="K142" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="L142" s="25" t="s">
+        <v>287</v>
+      </c>
+      <c r="M142" s="25"/>
+      <c r="N142" s="146"/>
+      <c r="O142" s="146"/>
+      <c r="P142" s="147"/>
+      <c r="Q142" s="25"/>
+    </row>
+    <row r="143" spans="1:17" s="44" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A143" s="51"/>
       <c r="B143" s="51"/>
       <c r="C143" s="51"/>
       <c r="D143" s="52"/>
-      <c r="E143" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F143" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="G143" s="51"/>
+      <c r="E143" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="F143" s="54">
+        <f>SUM(F38:F142)</f>
+        <v>3010322</v>
+      </c>
+      <c r="G143" s="53" t="s">
+        <v>62</v>
+      </c>
       <c r="H143" s="51"/>
       <c r="I143" s="51"/>
       <c r="J143" s="51"/>
       <c r="K143" s="51"/>
       <c r="L143" s="51"/>
-      <c r="M143" s="51"/>
-      <c r="N143" s="118"/>
-      <c r="O143" s="118"/>
+      <c r="M143" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="N143" s="54">
+        <f>SUM(N38:N142)</f>
+        <v>3337556</v>
+      </c>
+      <c r="O143" s="54">
+        <f>SUM(O38:O142)</f>
+        <v>1812517.6</v>
+      </c>
       <c r="P143" s="124"/>
       <c r="Q143" s="50"/>
     </row>
-    <row r="144" spans="1:17" s="44" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="197" t="s">
+    <row r="144" spans="1:17" s="44" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="51"/>
+      <c r="B144" s="51"/>
+      <c r="C144" s="51"/>
+      <c r="D144" s="52"/>
+      <c r="E144" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F144" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="G144" s="51"/>
+      <c r="H144" s="51"/>
+      <c r="I144" s="51"/>
+      <c r="J144" s="51"/>
+      <c r="K144" s="51"/>
+      <c r="L144" s="51"/>
+      <c r="M144" s="51"/>
+      <c r="N144" s="118"/>
+      <c r="O144" s="118"/>
+      <c r="P144" s="124"/>
+      <c r="Q144" s="50"/>
+    </row>
+    <row r="145" spans="1:17" s="44" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="202" t="s">
         <v>60</v>
       </c>
-      <c r="B144" s="198"/>
-      <c r="C144" s="198"/>
-      <c r="D144" s="198"/>
-      <c r="E144" s="198"/>
-      <c r="F144" s="198"/>
-      <c r="G144" s="198"/>
-      <c r="H144" s="198"/>
-      <c r="I144" s="198"/>
-      <c r="J144" s="198"/>
-      <c r="K144" s="198"/>
-      <c r="L144" s="198"/>
-      <c r="M144" s="198"/>
-      <c r="N144" s="198"/>
-      <c r="O144" s="198"/>
-      <c r="P144" s="198"/>
-      <c r="Q144" s="198"/>
-    </row>
-    <row r="145" spans="1:17" s="44" customFormat="1" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="36" t="s">
+      <c r="B145" s="203"/>
+      <c r="C145" s="203"/>
+      <c r="D145" s="203"/>
+      <c r="E145" s="203"/>
+      <c r="F145" s="203"/>
+      <c r="G145" s="203"/>
+      <c r="H145" s="203"/>
+      <c r="I145" s="203"/>
+      <c r="J145" s="203"/>
+      <c r="K145" s="203"/>
+      <c r="L145" s="203"/>
+      <c r="M145" s="203"/>
+      <c r="N145" s="203"/>
+      <c r="O145" s="203"/>
+      <c r="P145" s="203"/>
+      <c r="Q145" s="203"/>
+    </row>
+    <row r="146" spans="1:17" s="44" customFormat="1" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="B145" s="32" t="s">
+      <c r="B146" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="C145" s="32" t="s">
+      <c r="C146" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="D145" s="35" t="s">
+      <c r="D146" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="E145" s="33" t="s">
+      <c r="E146" s="33" t="s">
         <v>294</v>
       </c>
-      <c r="F145" s="33" t="s">
+      <c r="F146" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="G145" s="32" t="s">
+      <c r="G146" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="H145" s="32" t="s">
+      <c r="H146" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="I145" s="32" t="s">
+      <c r="I146" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="J145" s="32" t="s">
+      <c r="J146" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="K145" s="32" t="s">
+      <c r="K146" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="L145" s="114" t="s">
+      <c r="L146" s="114" t="s">
         <v>289</v>
       </c>
-      <c r="M145" s="114" t="s">
+      <c r="M146" s="114" t="s">
         <v>292</v>
       </c>
-      <c r="N145" s="115" t="s">
+      <c r="N146" s="115" t="s">
         <v>293</v>
       </c>
-      <c r="O145" s="128" t="s">
+      <c r="O146" s="128" t="s">
         <v>320</v>
       </c>
-      <c r="P145" s="121" t="s">
+      <c r="P146" s="121" t="s">
         <v>295</v>
       </c>
-      <c r="Q145" s="31" t="s">
+      <c r="Q146" s="31" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="146" spans="1:17" s="44" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="49">
-        <v>1</v>
-      </c>
-      <c r="B146" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="C146" s="25"/>
-      <c r="D146" s="48">
-        <v>100</v>
-      </c>
-      <c r="E146" s="47">
-        <v>200</v>
-      </c>
-      <c r="F146" s="47">
-        <f>SUM(D146*E146)</f>
-        <v>20000</v>
-      </c>
-      <c r="G146" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="H146" s="25"/>
-      <c r="I146" s="46" t="s">
-        <v>53</v>
-      </c>
-      <c r="J146" s="25"/>
-      <c r="K146" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="L146" s="45" t="s">
-        <v>284</v>
-      </c>
-      <c r="M146" s="45"/>
-      <c r="N146" s="117"/>
-      <c r="O146" s="117"/>
-      <c r="P146" s="123"/>
-      <c r="Q146" s="45"/>
     </row>
     <row r="147" spans="1:17" s="44" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B147" s="25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C147" s="25"/>
       <c r="D147" s="48">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E147" s="47">
         <v>200</v>
       </c>
       <c r="F147" s="47">
         <f>SUM(D147*E147)</f>
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="G147" s="25" t="s">
         <v>54</v>
@@ -9058,21 +9080,21 @@
     </row>
     <row r="148" spans="1:17" s="44" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="49">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B148" s="25" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C148" s="25"/>
       <c r="D148" s="48">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="E148" s="47">
         <v>200</v>
       </c>
       <c r="F148" s="47">
         <f>SUM(D148*E148)</f>
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="G148" s="25" t="s">
         <v>54</v>
@@ -9094,23 +9116,23 @@
       <c r="P148" s="123"/>
       <c r="Q148" s="45"/>
     </row>
-    <row r="149" spans="1:17" s="44" customFormat="1" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:17" s="44" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="49">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B149" s="25" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C149" s="25"/>
       <c r="D149" s="48">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="E149" s="47">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F149" s="47">
         <f>SUM(D149*E149)</f>
-        <v>3000</v>
+        <v>16000</v>
       </c>
       <c r="G149" s="25" t="s">
         <v>54</v>
@@ -9132,33 +9154,33 @@
       <c r="P149" s="123"/>
       <c r="Q149" s="45"/>
     </row>
-    <row r="150" spans="1:17" s="6" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="43">
-        <v>5</v>
-      </c>
-      <c r="B150" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="C150" s="17"/>
-      <c r="D150" s="42">
-        <v>50</v>
-      </c>
-      <c r="E150" s="41">
-        <v>100</v>
-      </c>
-      <c r="F150" s="41">
+    <row r="150" spans="1:17" s="44" customFormat="1" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A150" s="49">
+        <v>4</v>
+      </c>
+      <c r="B150" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C150" s="25"/>
+      <c r="D150" s="48">
+        <v>10</v>
+      </c>
+      <c r="E150" s="47">
+        <v>300</v>
+      </c>
+      <c r="F150" s="47">
         <f>SUM(D150*E150)</f>
-        <v>5000</v>
-      </c>
-      <c r="G150" s="17" t="s">
+        <v>3000</v>
+      </c>
+      <c r="G150" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="H150" s="17"/>
-      <c r="I150" s="40" t="s">
+      <c r="H150" s="25"/>
+      <c r="I150" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="J150" s="17"/>
-      <c r="K150" s="17" t="s">
+      <c r="J150" s="25"/>
+      <c r="K150" s="25" t="s">
         <v>52</v>
       </c>
       <c r="L150" s="45" t="s">
@@ -9170,196 +9192,192 @@
       <c r="P150" s="123"/>
       <c r="Q150" s="45"/>
     </row>
-    <row r="151" spans="1:17" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A151" s="5"/>
-      <c r="B151" s="5"/>
-      <c r="C151" s="2"/>
-      <c r="D151" s="4"/>
-      <c r="E151" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="F151" s="37">
-        <f>SUM(F146:F150)</f>
-        <v>54000</v>
-      </c>
-      <c r="G151" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="H151" s="2"/>
-      <c r="I151" s="2"/>
-      <c r="J151" s="2"/>
-      <c r="K151" s="2"/>
-      <c r="L151" s="2"/>
-      <c r="M151" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="N151" s="37">
-        <f>SUM(N146:N150)</f>
-        <v>0</v>
-      </c>
-      <c r="O151" s="37">
-        <f>SUM(O146:O150)</f>
-        <v>0</v>
-      </c>
-      <c r="P151" s="125"/>
-      <c r="Q151" s="1"/>
+    <row r="151" spans="1:17" s="6" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="43">
+        <v>5</v>
+      </c>
+      <c r="B151" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C151" s="17"/>
+      <c r="D151" s="42">
+        <v>50</v>
+      </c>
+      <c r="E151" s="41">
+        <v>100</v>
+      </c>
+      <c r="F151" s="41">
+        <f>SUM(D151*E151)</f>
+        <v>5000</v>
+      </c>
+      <c r="G151" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="H151" s="17"/>
+      <c r="I151" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="J151" s="17"/>
+      <c r="K151" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="L151" s="45" t="s">
+        <v>284</v>
+      </c>
+      <c r="M151" s="45"/>
+      <c r="N151" s="117"/>
+      <c r="O151" s="117"/>
+      <c r="P151" s="123"/>
+      <c r="Q151" s="45"/>
     </row>
     <row r="152" spans="1:17" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A152" s="5"/>
       <c r="B152" s="5"/>
       <c r="C152" s="2"/>
       <c r="D152" s="4"/>
-      <c r="E152" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F152" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="G152" s="9"/>
+      <c r="E152" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="F152" s="37">
+        <f>SUM(F147:F151)</f>
+        <v>54000</v>
+      </c>
+      <c r="G152" s="9" t="s">
+        <v>51</v>
+      </c>
       <c r="H152" s="2"/>
       <c r="I152" s="2"/>
       <c r="J152" s="2"/>
       <c r="K152" s="2"/>
       <c r="L152" s="2"/>
-      <c r="M152" s="2"/>
-      <c r="N152" s="119"/>
-      <c r="O152" s="119"/>
+      <c r="M152" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="N152" s="37">
+        <f>SUM(N147:N151)</f>
+        <v>0</v>
+      </c>
+      <c r="O152" s="37">
+        <f>SUM(O147:O151)</f>
+        <v>0</v>
+      </c>
       <c r="P152" s="125"/>
       <c r="Q152" s="1"/>
     </row>
-    <row r="153" spans="1:17" s="6" customFormat="1" ht="32.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="197" t="s">
+    <row r="153" spans="1:17" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A153" s="5"/>
+      <c r="B153" s="5"/>
+      <c r="C153" s="2"/>
+      <c r="D153" s="4"/>
+      <c r="E153" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F153" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G153" s="9"/>
+      <c r="H153" s="2"/>
+      <c r="I153" s="2"/>
+      <c r="J153" s="2"/>
+      <c r="K153" s="2"/>
+      <c r="L153" s="2"/>
+      <c r="M153" s="2"/>
+      <c r="N153" s="119"/>
+      <c r="O153" s="119"/>
+      <c r="P153" s="125"/>
+      <c r="Q153" s="1"/>
+    </row>
+    <row r="154" spans="1:17" s="6" customFormat="1" ht="32.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="202" t="s">
         <v>49</v>
       </c>
-      <c r="B153" s="198"/>
-      <c r="C153" s="198"/>
-      <c r="D153" s="198"/>
-      <c r="E153" s="198"/>
-      <c r="F153" s="198"/>
-      <c r="G153" s="198"/>
-      <c r="H153" s="198"/>
-      <c r="I153" s="198"/>
-      <c r="J153" s="198"/>
-      <c r="K153" s="198"/>
-      <c r="L153" s="198"/>
-      <c r="M153" s="198"/>
-      <c r="N153" s="198"/>
-      <c r="O153" s="198"/>
-      <c r="P153" s="198"/>
-      <c r="Q153" s="198"/>
-    </row>
-    <row r="154" spans="1:17" s="6" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="36" t="s">
+      <c r="B154" s="203"/>
+      <c r="C154" s="203"/>
+      <c r="D154" s="203"/>
+      <c r="E154" s="203"/>
+      <c r="F154" s="203"/>
+      <c r="G154" s="203"/>
+      <c r="H154" s="203"/>
+      <c r="I154" s="203"/>
+      <c r="J154" s="203"/>
+      <c r="K154" s="203"/>
+      <c r="L154" s="203"/>
+      <c r="M154" s="203"/>
+      <c r="N154" s="203"/>
+      <c r="O154" s="203"/>
+      <c r="P154" s="203"/>
+      <c r="Q154" s="203"/>
+    </row>
+    <row r="155" spans="1:17" s="6" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="B154" s="32" t="s">
+      <c r="B155" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="C154" s="32" t="s">
+      <c r="C155" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="D154" s="35" t="s">
+      <c r="D155" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="E154" s="33" t="s">
+      <c r="E155" s="33" t="s">
         <v>380</v>
       </c>
-      <c r="F154" s="33" t="s">
+      <c r="F155" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="G154" s="32" t="s">
+      <c r="G155" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="H154" s="32" t="s">
+      <c r="H155" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="I154" s="32" t="s">
+      <c r="I155" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="J154" s="32" t="s">
+      <c r="J155" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="K154" s="32" t="s">
+      <c r="K155" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="L154" s="114" t="s">
+      <c r="L155" s="114" t="s">
         <v>290</v>
       </c>
-      <c r="M154" s="114" t="s">
+      <c r="M155" s="114" t="s">
         <v>292</v>
       </c>
-      <c r="N154" s="115" t="s">
+      <c r="N155" s="115" t="s">
         <v>293</v>
       </c>
-      <c r="O154" s="128" t="s">
+      <c r="O155" s="128" t="s">
         <v>320</v>
       </c>
-      <c r="P154" s="121" t="s">
+      <c r="P155" s="121" t="s">
         <v>295</v>
       </c>
-      <c r="Q154" s="31" t="s">
+      <c r="Q155" s="31" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="155" spans="1:17" s="6" customFormat="1" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="30">
-        <v>1</v>
-      </c>
-      <c r="B155" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="C155" s="25"/>
-      <c r="D155" s="29">
-        <v>1</v>
-      </c>
-      <c r="E155" s="28">
-        <v>261000</v>
-      </c>
-      <c r="F155" s="27">
-        <f t="shared" ref="F155:F160" si="3">SUM(D155*E155)</f>
-        <v>261000</v>
-      </c>
-      <c r="G155" s="26"/>
-      <c r="H155" s="25"/>
-      <c r="I155" s="25"/>
-      <c r="J155" s="25"/>
-      <c r="K155" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="L155" s="23" t="s">
-        <v>288</v>
-      </c>
-      <c r="M155" s="23" t="s">
-        <v>353</v>
-      </c>
-      <c r="N155" s="168">
-        <v>204000</v>
-      </c>
-      <c r="O155" s="120"/>
-      <c r="P155" s="152" t="s">
-        <v>354</v>
-      </c>
-      <c r="Q155" s="23" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="156" spans="1:17" s="6" customFormat="1" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B156" s="29" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C156" s="25"/>
       <c r="D156" s="29">
         <v>1</v>
       </c>
       <c r="E156" s="28">
-        <v>88000</v>
+        <v>261000</v>
       </c>
       <c r="F156" s="27">
-        <f t="shared" si="3"/>
-        <v>88000</v>
+        <f t="shared" ref="F156:F161" si="3">SUM(D156*E156)</f>
+        <v>261000</v>
       </c>
       <c r="G156" s="26"/>
       <c r="H156" s="25"/>
@@ -9371,37 +9389,37 @@
       <c r="L156" s="23" t="s">
         <v>288</v>
       </c>
-      <c r="M156" s="200" t="s">
-        <v>477</v>
-      </c>
-      <c r="N156" s="201">
-        <v>49840</v>
+      <c r="M156" s="23" t="s">
+        <v>353</v>
+      </c>
+      <c r="N156" s="168">
+        <v>204000</v>
       </c>
       <c r="O156" s="120"/>
       <c r="P156" s="152" t="s">
         <v>354</v>
       </c>
-      <c r="Q156" s="23" t="s">
-        <v>484</v>
+      <c r="Q156" s="200">
+        <v>0.3</v>
       </c>
     </row>
     <row r="157" spans="1:17" s="6" customFormat="1" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B157" s="29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C157" s="25"/>
       <c r="D157" s="29">
         <v>1</v>
       </c>
       <c r="E157" s="28">
-        <v>78000</v>
+        <v>88000</v>
       </c>
       <c r="F157" s="27">
         <f t="shared" si="3"/>
-        <v>78000</v>
+        <v>88000</v>
       </c>
       <c r="G157" s="26"/>
       <c r="H157" s="25"/>
@@ -9413,37 +9431,37 @@
       <c r="L157" s="23" t="s">
         <v>288</v>
       </c>
-      <c r="M157" s="199" t="s">
-        <v>358</v>
-      </c>
-      <c r="N157" s="169">
-        <v>0</v>
+      <c r="M157" s="198" t="s">
+        <v>476</v>
+      </c>
+      <c r="N157" s="199">
+        <v>49840</v>
       </c>
       <c r="O157" s="120"/>
       <c r="P157" s="152" t="s">
-        <v>359</v>
-      </c>
-      <c r="Q157" s="23" t="s">
-        <v>357</v>
+        <v>354</v>
+      </c>
+      <c r="Q157" s="200">
+        <v>0.3</v>
       </c>
     </row>
     <row r="158" spans="1:17" s="6" customFormat="1" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B158" s="29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C158" s="25"/>
       <c r="D158" s="29">
         <v>1</v>
       </c>
       <c r="E158" s="28">
-        <v>182000</v>
+        <v>78000</v>
       </c>
       <c r="F158" s="27">
         <f t="shared" si="3"/>
-        <v>182000</v>
+        <v>78000</v>
       </c>
       <c r="G158" s="26"/>
       <c r="H158" s="25"/>
@@ -9455,15 +9473,15 @@
       <c r="L158" s="23" t="s">
         <v>288</v>
       </c>
-      <c r="M158" s="199" t="s">
-        <v>355</v>
+      <c r="M158" s="197" t="s">
+        <v>358</v>
       </c>
       <c r="N158" s="169">
         <v>0</v>
       </c>
       <c r="O158" s="120"/>
       <c r="P158" s="152" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="Q158" s="23" t="s">
         <v>357</v>
@@ -9471,21 +9489,21 @@
     </row>
     <row r="159" spans="1:17" s="6" customFormat="1" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="30">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B159" s="29" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C159" s="25"/>
       <c r="D159" s="29">
         <v>1</v>
       </c>
       <c r="E159" s="28">
-        <v>86000</v>
+        <v>182000</v>
       </c>
       <c r="F159" s="27">
         <f t="shared" si="3"/>
-        <v>86000</v>
+        <v>182000</v>
       </c>
       <c r="G159" s="26"/>
       <c r="H159" s="25"/>
@@ -9497,102 +9515,115 @@
       <c r="L159" s="23" t="s">
         <v>288</v>
       </c>
-      <c r="M159" s="23" t="s">
-        <v>479</v>
-      </c>
-      <c r="N159" s="120">
+      <c r="M159" s="197" t="s">
+        <v>355</v>
+      </c>
+      <c r="N159" s="169">
+        <v>0</v>
+      </c>
+      <c r="O159" s="120"/>
+      <c r="P159" s="152" t="s">
+        <v>356</v>
+      </c>
+      <c r="Q159" s="23" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="160" spans="1:17" s="6" customFormat="1" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="30">
+        <v>5</v>
+      </c>
+      <c r="B160" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C160" s="25"/>
+      <c r="D160" s="29">
+        <v>1</v>
+      </c>
+      <c r="E160" s="28">
+        <v>86000</v>
+      </c>
+      <c r="F160" s="27">
+        <f t="shared" si="3"/>
+        <v>86000</v>
+      </c>
+      <c r="G160" s="26"/>
+      <c r="H160" s="25"/>
+      <c r="I160" s="25"/>
+      <c r="J160" s="25"/>
+      <c r="K160" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="L160" s="23" t="s">
+        <v>288</v>
+      </c>
+      <c r="M160" s="23" t="s">
+        <v>478</v>
+      </c>
+      <c r="N160" s="120">
         <v>49300</v>
       </c>
-      <c r="O159" s="120"/>
-      <c r="P159" s="126" t="s">
-        <v>478</v>
-      </c>
-      <c r="Q159" s="23" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="160" spans="1:17" s="6" customFormat="1" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="22">
+      <c r="O160" s="120"/>
+      <c r="P160" s="126" t="s">
+        <v>477</v>
+      </c>
+      <c r="Q160" s="200">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:17" s="6" customFormat="1" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A161" s="22">
         <v>6</v>
       </c>
-      <c r="B160" s="21" t="s">
+      <c r="B161" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C160" s="17"/>
-      <c r="D160" s="21">
+      <c r="C161" s="17"/>
+      <c r="D161" s="21">
         <v>1</v>
       </c>
-      <c r="E160" s="20">
+      <c r="E161" s="20">
         <v>5000</v>
       </c>
-      <c r="F160" s="19">
+      <c r="F161" s="19">
         <f t="shared" si="3"/>
         <v>5000</v>
       </c>
-      <c r="G160" s="18"/>
-      <c r="H160" s="17"/>
-      <c r="I160" s="17"/>
-      <c r="J160" s="17"/>
-      <c r="K160" s="16" t="s">
+      <c r="G161" s="18"/>
+      <c r="H161" s="17"/>
+      <c r="I161" s="17"/>
+      <c r="J161" s="17"/>
+      <c r="K161" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="L160" s="23" t="s">
+      <c r="L161" s="23" t="s">
         <v>288</v>
       </c>
-      <c r="M160" s="23" t="s">
-        <v>480</v>
-      </c>
-      <c r="N160" s="120">
+      <c r="M161" s="23" t="s">
+        <v>479</v>
+      </c>
+      <c r="N161" s="120">
         <v>49732</v>
       </c>
-      <c r="O160" s="120"/>
-      <c r="P160" s="152" t="s">
+      <c r="O161" s="120"/>
+      <c r="P161" s="152" t="s">
         <v>354</v>
       </c>
-      <c r="Q160" s="23" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="161" spans="1:17" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A161" s="5"/>
-      <c r="B161" s="5"/>
-      <c r="C161" s="2"/>
-      <c r="D161" s="4"/>
-      <c r="E161" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="F161" s="13">
-        <f>SUM(F155:F160)</f>
-        <v>700000</v>
-      </c>
-      <c r="G161" s="9"/>
-      <c r="H161" s="2"/>
-      <c r="I161" s="2"/>
-      <c r="J161" s="2"/>
-      <c r="K161" s="2"/>
-      <c r="L161" s="2"/>
-      <c r="M161" s="2"/>
-      <c r="N161" s="13">
-        <f>SUM(N155:N160)</f>
-        <v>352872</v>
-      </c>
-      <c r="O161" s="13">
-        <f>SUM(O155:O160)</f>
-        <v>0</v>
-      </c>
-      <c r="P161" s="125"/>
-      <c r="Q161" s="1"/>
+      <c r="Q161" s="200">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="162" spans="1:17" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A162" s="5"/>
       <c r="B162" s="5"/>
       <c r="C162" s="2"/>
       <c r="D162" s="4"/>
-      <c r="E162" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F162" s="11" t="s">
-        <v>37</v>
+      <c r="E162" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F162" s="13">
+        <f>SUM(F156:F161)</f>
+        <v>700000</v>
       </c>
       <c r="G162" s="9"/>
       <c r="H162" s="2"/>
@@ -9601,144 +9632,131 @@
       <c r="K162" s="2"/>
       <c r="L162" s="2"/>
       <c r="M162" s="2"/>
-      <c r="N162" s="119"/>
-      <c r="O162" s="119"/>
+      <c r="N162" s="13">
+        <f>SUM(N156:N161)</f>
+        <v>352872</v>
+      </c>
+      <c r="O162" s="13">
+        <f>SUM(O156:O161)</f>
+        <v>0</v>
+      </c>
       <c r="P162" s="125"/>
       <c r="Q162" s="1"/>
     </row>
-    <row r="163" spans="1:17" s="6" customFormat="1" ht="32.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="197" t="s">
+    <row r="163" spans="1:17" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A163" s="5"/>
+      <c r="B163" s="5"/>
+      <c r="C163" s="2"/>
+      <c r="D163" s="4"/>
+      <c r="E163" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F163" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G163" s="9"/>
+      <c r="H163" s="2"/>
+      <c r="I163" s="2"/>
+      <c r="J163" s="2"/>
+      <c r="K163" s="2"/>
+      <c r="L163" s="2"/>
+      <c r="M163" s="2"/>
+      <c r="N163" s="119"/>
+      <c r="O163" s="119"/>
+      <c r="P163" s="125"/>
+      <c r="Q163" s="1"/>
+    </row>
+    <row r="164" spans="1:17" s="6" customFormat="1" ht="32.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A164" s="202" t="s">
         <v>48</v>
       </c>
-      <c r="B163" s="198"/>
-      <c r="C163" s="198"/>
-      <c r="D163" s="198"/>
-      <c r="E163" s="198"/>
-      <c r="F163" s="198"/>
-      <c r="G163" s="198"/>
-      <c r="H163" s="198"/>
-      <c r="I163" s="198"/>
-      <c r="J163" s="198"/>
-      <c r="K163" s="198"/>
-      <c r="L163" s="198"/>
-      <c r="M163" s="198"/>
-      <c r="N163" s="198"/>
-      <c r="O163" s="198"/>
-      <c r="P163" s="198"/>
-      <c r="Q163" s="198"/>
-    </row>
-    <row r="164" spans="1:17" s="6" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="36" t="s">
+      <c r="B164" s="203"/>
+      <c r="C164" s="203"/>
+      <c r="D164" s="203"/>
+      <c r="E164" s="203"/>
+      <c r="F164" s="203"/>
+      <c r="G164" s="203"/>
+      <c r="H164" s="203"/>
+      <c r="I164" s="203"/>
+      <c r="J164" s="203"/>
+      <c r="K164" s="203"/>
+      <c r="L164" s="203"/>
+      <c r="M164" s="203"/>
+      <c r="N164" s="203"/>
+      <c r="O164" s="203"/>
+      <c r="P164" s="203"/>
+      <c r="Q164" s="203"/>
+    </row>
+    <row r="165" spans="1:17" s="6" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="B164" s="32" t="s">
+      <c r="B165" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="C164" s="32" t="s">
+      <c r="C165" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="D164" s="35" t="s">
+      <c r="D165" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="E164" s="33" t="s">
+      <c r="E165" s="33" t="s">
         <v>294</v>
       </c>
-      <c r="F164" s="33" t="s">
+      <c r="F165" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="G164" s="32" t="s">
+      <c r="G165" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="H164" s="32" t="s">
+      <c r="H165" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="I164" s="32" t="s">
+      <c r="I165" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="J164" s="32" t="s">
+      <c r="J165" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="K164" s="32" t="s">
+      <c r="K165" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="L164" s="114" t="s">
+      <c r="L165" s="114" t="s">
         <v>289</v>
       </c>
-      <c r="M164" s="114" t="s">
+      <c r="M165" s="114" t="s">
         <v>292</v>
       </c>
-      <c r="N164" s="115" t="s">
+      <c r="N165" s="115" t="s">
         <v>293</v>
       </c>
-      <c r="O164" s="128" t="s">
+      <c r="O165" s="128" t="s">
         <v>320</v>
       </c>
-      <c r="P164" s="121" t="s">
+      <c r="P165" s="121" t="s">
         <v>295</v>
       </c>
-      <c r="Q164" s="31" t="s">
+      <c r="Q165" s="31" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="165" spans="1:17" s="6" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="30">
-        <v>1</v>
-      </c>
-      <c r="B165" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="C165" s="25"/>
-      <c r="D165" s="29">
-        <v>1</v>
-      </c>
-      <c r="E165" s="28">
-        <v>210000</v>
-      </c>
-      <c r="F165" s="27">
-        <f t="shared" ref="F165:F170" si="4">SUM(D165*E165)</f>
-        <v>210000</v>
-      </c>
-      <c r="G165" s="26"/>
-      <c r="H165" s="25"/>
-      <c r="I165" s="25"/>
-      <c r="J165" s="25"/>
-      <c r="K165" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="L165" s="23" t="s">
-        <v>286</v>
-      </c>
-      <c r="M165" s="23" t="s">
-        <v>366</v>
-      </c>
-      <c r="N165" s="168">
-        <v>286350</v>
-      </c>
-      <c r="O165" s="120"/>
-      <c r="P165" s="152" t="s">
-        <v>368</v>
-      </c>
-      <c r="Q165" s="23" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="166" spans="1:17" s="6" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B166" s="29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C166" s="25"/>
       <c r="D166" s="29">
         <v>1</v>
       </c>
       <c r="E166" s="28">
-        <v>160000</v>
+        <v>210000</v>
       </c>
       <c r="F166" s="27">
-        <f t="shared" si="4"/>
-        <v>160000</v>
+        <f t="shared" ref="F166:F171" si="4">SUM(D166*E166)</f>
+        <v>210000</v>
       </c>
       <c r="G166" s="26"/>
       <c r="H166" s="25"/>
@@ -9750,29 +9768,37 @@
       <c r="L166" s="23" t="s">
         <v>286</v>
       </c>
-      <c r="M166" s="23"/>
-      <c r="N166" s="120"/>
+      <c r="M166" s="23" t="s">
+        <v>366</v>
+      </c>
+      <c r="N166" s="168">
+        <v>286350</v>
+      </c>
       <c r="O166" s="120"/>
-      <c r="P166" s="126"/>
-      <c r="Q166" s="23"/>
+      <c r="P166" s="152" t="s">
+        <v>368</v>
+      </c>
+      <c r="Q166" s="200">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="167" spans="1:17" s="6" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B167" s="29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C167" s="25"/>
       <c r="D167" s="29">
         <v>1</v>
       </c>
       <c r="E167" s="28">
-        <v>83000</v>
+        <v>160000</v>
       </c>
       <c r="F167" s="27">
         <f t="shared" si="4"/>
-        <v>83000</v>
+        <v>160000</v>
       </c>
       <c r="G167" s="26"/>
       <c r="H167" s="25"/>
@@ -9784,37 +9810,29 @@
       <c r="L167" s="23" t="s">
         <v>286</v>
       </c>
-      <c r="M167" s="199" t="s">
-        <v>364</v>
-      </c>
-      <c r="N167" s="169">
-        <v>42899.9</v>
-      </c>
+      <c r="M167" s="23"/>
+      <c r="N167" s="120"/>
       <c r="O167" s="120"/>
-      <c r="P167" s="152" t="s">
-        <v>365</v>
-      </c>
-      <c r="Q167" s="202">
-        <v>1</v>
-      </c>
+      <c r="P167" s="126"/>
+      <c r="Q167" s="23"/>
     </row>
     <row r="168" spans="1:17" s="6" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B168" s="29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C168" s="25"/>
       <c r="D168" s="29">
         <v>1</v>
       </c>
       <c r="E168" s="28">
-        <v>167000</v>
+        <v>83000</v>
       </c>
       <c r="F168" s="27">
         <f t="shared" si="4"/>
-        <v>167000</v>
+        <v>83000</v>
       </c>
       <c r="G168" s="26"/>
       <c r="H168" s="25"/>
@@ -9826,37 +9844,37 @@
       <c r="L168" s="23" t="s">
         <v>286</v>
       </c>
-      <c r="M168" s="199" t="s">
-        <v>360</v>
+      <c r="M168" s="197" t="s">
+        <v>364</v>
       </c>
       <c r="N168" s="169">
-        <v>48592.4</v>
+        <v>42899.9</v>
       </c>
       <c r="O168" s="120"/>
       <c r="P168" s="152" t="s">
-        <v>361</v>
-      </c>
-      <c r="Q168" s="202">
+        <v>365</v>
+      </c>
+      <c r="Q168" s="200">
         <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:17" s="6" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="30">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B169" s="29" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C169" s="25"/>
       <c r="D169" s="29">
         <v>1</v>
       </c>
       <c r="E169" s="28">
-        <v>78000</v>
+        <v>167000</v>
       </c>
       <c r="F169" s="27">
         <f t="shared" si="4"/>
-        <v>78000</v>
+        <v>167000</v>
       </c>
       <c r="G169" s="26"/>
       <c r="H169" s="25"/>
@@ -9868,104 +9886,115 @@
       <c r="L169" s="23" t="s">
         <v>286</v>
       </c>
-      <c r="M169" s="23" t="s">
-        <v>362</v>
+      <c r="M169" s="197" t="s">
+        <v>360</v>
       </c>
       <c r="N169" s="169">
-        <v>45878.400000000001</v>
+        <v>48592.4</v>
       </c>
       <c r="O169" s="120"/>
       <c r="P169" s="152" t="s">
+        <v>361</v>
+      </c>
+      <c r="Q169" s="200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:17" s="6" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="30">
+        <v>5</v>
+      </c>
+      <c r="B170" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C170" s="25"/>
+      <c r="D170" s="29">
+        <v>1</v>
+      </c>
+      <c r="E170" s="28">
+        <v>78000</v>
+      </c>
+      <c r="F170" s="27">
+        <f t="shared" si="4"/>
+        <v>78000</v>
+      </c>
+      <c r="G170" s="26"/>
+      <c r="H170" s="25"/>
+      <c r="I170" s="25"/>
+      <c r="J170" s="25"/>
+      <c r="K170" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="L170" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="M170" s="23" t="s">
+        <v>362</v>
+      </c>
+      <c r="N170" s="169">
+        <v>45878.400000000001</v>
+      </c>
+      <c r="O170" s="120"/>
+      <c r="P170" s="152" t="s">
         <v>363</v>
       </c>
-      <c r="Q169" s="23" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="170" spans="1:17" s="6" customFormat="1" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="22">
+      <c r="Q170" s="23" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="171" spans="1:17" s="6" customFormat="1" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A171" s="22">
         <v>6</v>
       </c>
-      <c r="B170" s="21" t="s">
+      <c r="B171" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C170" s="17"/>
-      <c r="D170" s="21">
+      <c r="C171" s="17"/>
+      <c r="D171" s="21">
         <v>1</v>
       </c>
-      <c r="E170" s="20">
+      <c r="E171" s="20">
         <v>5000</v>
       </c>
-      <c r="F170" s="19">
+      <c r="F171" s="19">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="G170" s="18"/>
-      <c r="H170" s="17"/>
-      <c r="I170" s="17"/>
-      <c r="J170" s="17"/>
-      <c r="K170" s="16" t="s">
+      <c r="G171" s="18"/>
+      <c r="H171" s="17"/>
+      <c r="I171" s="17"/>
+      <c r="J171" s="17"/>
+      <c r="K171" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="L170" s="23" t="s">
+      <c r="L171" s="23" t="s">
         <v>286</v>
       </c>
-      <c r="M170" s="23" t="s">
-        <v>490</v>
-      </c>
-      <c r="N170" s="120">
+      <c r="M171" s="23" t="s">
+        <v>483</v>
+      </c>
+      <c r="N171" s="120">
         <v>49900</v>
       </c>
-      <c r="O170" s="120"/>
-      <c r="P170" s="152" t="s">
-        <v>491</v>
-      </c>
-      <c r="Q170" s="23" t="s">
+      <c r="O171" s="120"/>
+      <c r="P171" s="152" t="s">
+        <v>484</v>
+      </c>
+      <c r="Q171" s="23" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="171" spans="1:17" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A171" s="5"/>
-      <c r="B171" s="5"/>
-      <c r="C171" s="2"/>
-      <c r="D171" s="4"/>
-      <c r="E171" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="F171" s="13">
-        <f>SUM(F165:F170)</f>
-        <v>703000</v>
-      </c>
-      <c r="G171" s="9"/>
-      <c r="H171" s="2"/>
-      <c r="I171" s="2"/>
-      <c r="J171" s="2"/>
-      <c r="K171" s="2"/>
-      <c r="L171" s="2"/>
-      <c r="M171" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="N171" s="13">
-        <f>SUM(N165:N170)</f>
-        <v>473620.70000000007</v>
-      </c>
-      <c r="O171" s="13">
-        <f>SUM(O165:O170)</f>
-        <v>0</v>
-      </c>
-      <c r="P171" s="125"/>
-      <c r="Q171" s="1"/>
     </row>
     <row r="172" spans="1:17" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A172" s="5"/>
       <c r="B172" s="5"/>
       <c r="C172" s="2"/>
       <c r="D172" s="4"/>
-      <c r="E172" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F172" s="11" t="s">
-        <v>37</v>
+      <c r="E172" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F172" s="13">
+        <f>SUM(F166:F171)</f>
+        <v>703000</v>
       </c>
       <c r="G172" s="9"/>
       <c r="H172" s="2"/>
@@ -9973,137 +10002,134 @@
       <c r="J172" s="2"/>
       <c r="K172" s="2"/>
       <c r="L172" s="2"/>
-      <c r="M172" s="2"/>
-      <c r="N172" s="119"/>
-      <c r="O172" s="119"/>
+      <c r="M172" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="N172" s="13">
+        <f>SUM(N166:N171)</f>
+        <v>473620.70000000007</v>
+      </c>
+      <c r="O172" s="13">
+        <f>SUM(O166:O171)</f>
+        <v>0</v>
+      </c>
       <c r="P172" s="125"/>
       <c r="Q172" s="1"/>
     </row>
-    <row r="173" spans="1:17" s="6" customFormat="1" ht="32.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A173" s="197" t="s">
+    <row r="173" spans="1:17" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A173" s="5"/>
+      <c r="B173" s="5"/>
+      <c r="C173" s="2"/>
+      <c r="D173" s="4"/>
+      <c r="E173" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F173" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G173" s="9"/>
+      <c r="H173" s="2"/>
+      <c r="I173" s="2"/>
+      <c r="J173" s="2"/>
+      <c r="K173" s="2"/>
+      <c r="L173" s="2"/>
+      <c r="M173" s="2"/>
+      <c r="N173" s="119"/>
+      <c r="O173" s="119"/>
+      <c r="P173" s="125"/>
+      <c r="Q173" s="1"/>
+    </row>
+    <row r="174" spans="1:17" s="6" customFormat="1" ht="32.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A174" s="202" t="s">
         <v>36</v>
       </c>
-      <c r="B173" s="198"/>
-      <c r="C173" s="198"/>
-      <c r="D173" s="198"/>
-      <c r="E173" s="198"/>
-      <c r="F173" s="198"/>
-      <c r="G173" s="198"/>
-      <c r="H173" s="198"/>
-      <c r="I173" s="198"/>
-      <c r="J173" s="198"/>
-      <c r="K173" s="198"/>
-      <c r="L173" s="198"/>
-      <c r="M173" s="198"/>
-      <c r="N173" s="198"/>
-      <c r="O173" s="198"/>
-      <c r="P173" s="198"/>
-      <c r="Q173" s="198"/>
-    </row>
-    <row r="174" spans="1:17" s="6" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="36" t="s">
+      <c r="B174" s="203"/>
+      <c r="C174" s="203"/>
+      <c r="D174" s="203"/>
+      <c r="E174" s="203"/>
+      <c r="F174" s="203"/>
+      <c r="G174" s="203"/>
+      <c r="H174" s="203"/>
+      <c r="I174" s="203"/>
+      <c r="J174" s="203"/>
+      <c r="K174" s="203"/>
+      <c r="L174" s="203"/>
+      <c r="M174" s="203"/>
+      <c r="N174" s="203"/>
+      <c r="O174" s="203"/>
+      <c r="P174" s="203"/>
+      <c r="Q174" s="203"/>
+    </row>
+    <row r="175" spans="1:17" s="6" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="B174" s="32" t="s">
+      <c r="B175" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="C174" s="32" t="s">
+      <c r="C175" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="D174" s="35" t="s">
+      <c r="D175" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="E174" s="33" t="s">
+      <c r="E175" s="33" t="s">
         <v>294</v>
       </c>
-      <c r="F174" s="33" t="s">
+      <c r="F175" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="G174" s="32" t="s">
+      <c r="G175" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="H174" s="32" t="s">
+      <c r="H175" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="I174" s="32" t="s">
+      <c r="I175" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="J174" s="32" t="s">
+      <c r="J175" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="K174" s="32" t="s">
+      <c r="K175" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="L174" s="114" t="s">
+      <c r="L175" s="114" t="s">
         <v>289</v>
       </c>
-      <c r="M174" s="114" t="s">
+      <c r="M175" s="114" t="s">
         <v>292</v>
       </c>
-      <c r="N174" s="127" t="s">
+      <c r="N175" s="127" t="s">
         <v>291</v>
       </c>
-      <c r="O174" s="128" t="s">
+      <c r="O175" s="128" t="s">
         <v>320</v>
       </c>
-      <c r="P174" s="121" t="s">
+      <c r="P175" s="121" t="s">
         <v>295</v>
       </c>
-      <c r="Q174" s="31" t="s">
+      <c r="Q175" s="31" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="175" spans="1:17" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="30">
-        <v>1</v>
-      </c>
-      <c r="B175" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="C175" s="25"/>
-      <c r="D175" s="29">
-        <v>1</v>
-      </c>
-      <c r="E175" s="28">
-        <v>19300</v>
-      </c>
-      <c r="F175" s="27">
-        <f>SUM(D175*E175)</f>
-        <v>19300</v>
-      </c>
-      <c r="G175" s="26"/>
-      <c r="H175" s="25"/>
-      <c r="I175" s="25"/>
-      <c r="J175" s="25"/>
-      <c r="K175" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="L175" s="23" t="s">
-        <v>286</v>
-      </c>
-      <c r="M175" s="23"/>
-      <c r="N175" s="120"/>
-      <c r="O175" s="120"/>
-      <c r="P175" s="126"/>
-      <c r="Q175" s="23"/>
     </row>
     <row r="176" spans="1:17" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B176" s="29" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C176" s="25"/>
       <c r="D176" s="29">
         <v>1</v>
       </c>
       <c r="E176" s="28">
-        <v>28400</v>
+        <v>19300</v>
       </c>
       <c r="F176" s="27">
         <f>SUM(D176*E176)</f>
-        <v>28400</v>
+        <v>19300</v>
       </c>
       <c r="G176" s="26"/>
       <c r="H176" s="25"/>
@@ -10123,21 +10149,21 @@
     </row>
     <row r="177" spans="1:17" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B177" s="29" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C177" s="25"/>
       <c r="D177" s="29">
         <v>1</v>
       </c>
       <c r="E177" s="28">
-        <v>30000</v>
+        <v>28400</v>
       </c>
       <c r="F177" s="27">
         <f>SUM(D177*E177)</f>
-        <v>30000</v>
+        <v>28400</v>
       </c>
       <c r="G177" s="26"/>
       <c r="H177" s="25"/>
@@ -10155,29 +10181,29 @@
       <c r="P177" s="126"/>
       <c r="Q177" s="23"/>
     </row>
-    <row r="178" spans="1:17" s="6" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="22">
-        <v>4</v>
-      </c>
-      <c r="B178" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C178" s="17"/>
-      <c r="D178" s="21">
+    <row r="178" spans="1:17" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="30">
+        <v>3</v>
+      </c>
+      <c r="B178" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="E178" s="20">
-        <v>23000</v>
-      </c>
-      <c r="F178" s="19">
+      <c r="C178" s="25"/>
+      <c r="D178" s="29">
+        <v>1</v>
+      </c>
+      <c r="E178" s="28">
+        <v>30000</v>
+      </c>
+      <c r="F178" s="27">
         <f>SUM(D178*E178)</f>
-        <v>23000</v>
-      </c>
-      <c r="G178" s="18"/>
-      <c r="H178" s="17"/>
-      <c r="I178" s="17"/>
-      <c r="J178" s="17"/>
-      <c r="K178" s="16" t="s">
+        <v>30000</v>
+      </c>
+      <c r="G178" s="26"/>
+      <c r="H178" s="25"/>
+      <c r="I178" s="25"/>
+      <c r="J178" s="25"/>
+      <c r="K178" s="24" t="s">
         <v>23</v>
       </c>
       <c r="L178" s="23" t="s">
@@ -10189,48 +10215,51 @@
       <c r="P178" s="126"/>
       <c r="Q178" s="23"/>
     </row>
-    <row r="179" spans="1:17" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A179" s="5"/>
-      <c r="B179"/>
-      <c r="C179" s="2"/>
-      <c r="D179"/>
-      <c r="E179" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="F179" s="13">
-        <f>SUM(F175:F178)</f>
-        <v>100700</v>
-      </c>
-      <c r="G179" s="9"/>
-      <c r="H179" s="2"/>
-      <c r="I179" s="2"/>
-      <c r="J179" s="2"/>
-      <c r="K179" s="2"/>
-      <c r="L179" s="2"/>
-      <c r="M179" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="N179" s="13">
-        <f>SUM(N175:N178)</f>
+    <row r="179" spans="1:17" s="6" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A179" s="22">
+        <v>4</v>
+      </c>
+      <c r="B179" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="O179" s="13">
-        <f>SUM(O175:O178)</f>
-        <v>0</v>
-      </c>
-      <c r="P179" s="125"/>
-      <c r="Q179" s="1"/>
+      <c r="C179" s="17"/>
+      <c r="D179" s="21">
+        <v>1</v>
+      </c>
+      <c r="E179" s="20">
+        <v>23000</v>
+      </c>
+      <c r="F179" s="19">
+        <f>SUM(D179*E179)</f>
+        <v>23000</v>
+      </c>
+      <c r="G179" s="18"/>
+      <c r="H179" s="17"/>
+      <c r="I179" s="17"/>
+      <c r="J179" s="17"/>
+      <c r="K179" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="L179" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="M179" s="23"/>
+      <c r="N179" s="120"/>
+      <c r="O179" s="120"/>
+      <c r="P179" s="126"/>
+      <c r="Q179" s="23"/>
     </row>
     <row r="180" spans="1:17" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A180" s="5"/>
       <c r="B180"/>
       <c r="C180" s="2"/>
       <c r="D180"/>
-      <c r="E180" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F180" s="11" t="s">
-        <v>20</v>
+      <c r="E180" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F180" s="13">
+        <f>SUM(F176:F179)</f>
+        <v>100700</v>
       </c>
       <c r="G180" s="9"/>
       <c r="H180" s="2"/>
@@ -10238,19 +10267,31 @@
       <c r="J180" s="2"/>
       <c r="K180" s="2"/>
       <c r="L180" s="2"/>
-      <c r="M180" s="2"/>
-      <c r="N180" s="119"/>
-      <c r="O180" s="119"/>
+      <c r="M180" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="N180" s="13">
+        <f>SUM(N176:N179)</f>
+        <v>0</v>
+      </c>
+      <c r="O180" s="13">
+        <f>SUM(O176:O179)</f>
+        <v>0</v>
+      </c>
       <c r="P180" s="125"/>
       <c r="Q180" s="1"/>
     </row>
     <row r="181" spans="1:17" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A181" s="5"/>
-      <c r="B181" s="5"/>
+      <c r="B181"/>
       <c r="C181" s="2"/>
-      <c r="D181" s="4"/>
-      <c r="E181" s="10"/>
-      <c r="F181" s="3"/>
+      <c r="D181"/>
+      <c r="E181" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F181" s="11" t="s">
+        <v>20</v>
+      </c>
       <c r="G181" s="9"/>
       <c r="H181" s="2"/>
       <c r="I181" s="2"/>
@@ -10263,14 +10304,14 @@
       <c r="P181" s="125"/>
       <c r="Q181" s="1"/>
     </row>
-    <row r="182" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:17" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A182" s="5"/>
       <c r="B182" s="5"/>
       <c r="C182" s="2"/>
       <c r="D182" s="4"/>
-      <c r="E182" s="3"/>
+      <c r="E182" s="10"/>
       <c r="F182" s="3"/>
-      <c r="G182" s="2"/>
+      <c r="G182" s="9"/>
       <c r="H182" s="2"/>
       <c r="I182" s="2"/>
       <c r="J182" s="2"/>
@@ -10282,62 +10323,58 @@
       <c r="P182" s="125"/>
       <c r="Q182" s="1"/>
     </row>
-    <row r="183" spans="1:17" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A183" s="5"/>
       <c r="B183" s="5"/>
       <c r="C183" s="2"/>
       <c r="D183" s="4"/>
-      <c r="E183" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F183" s="7">
-        <f>SUM(F33+F142+F151+F161+F171+F179)</f>
-        <v>4999192</v>
-      </c>
+      <c r="E183" s="3"/>
+      <c r="F183" s="3"/>
       <c r="G183" s="2"/>
       <c r="H183" s="2"/>
       <c r="I183" s="2"/>
       <c r="J183" s="2"/>
       <c r="K183" s="2"/>
       <c r="L183" s="2"/>
-      <c r="M183" s="8" t="s">
-        <v>367</v>
-      </c>
-      <c r="N183" s="7">
-        <f>SUM(N33+N142+N151+N161+N171+N179)</f>
-        <v>4553830.7</v>
-      </c>
-      <c r="O183" s="7">
-        <f>SUM(O33+O142+O151+O161+O171+O179)</f>
-        <v>1817541.6</v>
-      </c>
+      <c r="M183" s="2"/>
+      <c r="N183" s="119"/>
+      <c r="O183" s="119"/>
       <c r="P183" s="125"/>
       <c r="Q183" s="1"/>
     </row>
-    <row r="184" spans="1:17" s="6" customFormat="1" ht="24.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:17" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A184" s="5"/>
       <c r="B184" s="5"/>
       <c r="C184" s="2"/>
       <c r="D184" s="4"/>
-      <c r="E184" s="3"/>
-      <c r="F184" s="3"/>
+      <c r="E184" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F184" s="7">
+        <f>SUM(F33+F143+F152+F162+F172+F180)</f>
+        <v>4999192</v>
+      </c>
       <c r="G184" s="2"/>
       <c r="H184" s="2"/>
       <c r="I184" s="2"/>
       <c r="J184" s="2"/>
       <c r="K184" s="2"/>
       <c r="L184" s="2"/>
-      <c r="M184" s="2"/>
-      <c r="N184" s="157" t="s">
-        <v>417</v>
-      </c>
-      <c r="O184" s="158" t="s">
-        <v>418</v>
+      <c r="M184" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="N184" s="7">
+        <f>SUM(N33+N143+N152+N162+N172+N180)</f>
+        <v>4553830.7</v>
+      </c>
+      <c r="O184" s="7">
+        <f>SUM(O33+O143+O152+O162+O172+O180)</f>
+        <v>1812517.6</v>
       </c>
       <c r="P184" s="125"/>
       <c r="Q184" s="1"/>
     </row>
-    <row r="185" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:17" s="6" customFormat="1" ht="24.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="5"/>
       <c r="B185" s="5"/>
       <c r="C185" s="2"/>
@@ -10351,8 +10388,12 @@
       <c r="K185" s="2"/>
       <c r="L185" s="2"/>
       <c r="M185" s="2"/>
-      <c r="N185" s="119"/>
-      <c r="O185" s="119"/>
+      <c r="N185" s="157" t="s">
+        <v>417</v>
+      </c>
+      <c r="O185" s="158" t="s">
+        <v>418</v>
+      </c>
       <c r="P185" s="125"/>
       <c r="Q185" s="1"/>
     </row>
@@ -10375,7 +10416,7 @@
       <c r="P186" s="125"/>
       <c r="Q186" s="1"/>
     </row>
-    <row r="187" spans="1:17" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A187" s="5"/>
       <c r="B187" s="5"/>
       <c r="C187" s="2"/>
@@ -10388,18 +10429,13 @@
       <c r="J187" s="2"/>
       <c r="K187" s="2"/>
       <c r="L187" s="2"/>
-      <c r="M187" s="155" t="s">
-        <v>416</v>
-      </c>
-      <c r="N187" s="156">
-        <f>SUM(N183+O183)</f>
-        <v>6371372.3000000007</v>
-      </c>
+      <c r="M187" s="2"/>
+      <c r="N187" s="119"/>
       <c r="O187" s="119"/>
       <c r="P187" s="125"/>
       <c r="Q187" s="1"/>
     </row>
-    <row r="188" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:17" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A188" s="5"/>
       <c r="B188" s="5"/>
       <c r="C188" s="2"/>
@@ -10412,8 +10448,13 @@
       <c r="J188" s="2"/>
       <c r="K188" s="2"/>
       <c r="L188" s="2"/>
-      <c r="M188" s="2"/>
-      <c r="N188" s="119"/>
+      <c r="M188" s="155" t="s">
+        <v>416</v>
+      </c>
+      <c r="N188" s="156">
+        <f>SUM(N184+O184)</f>
+        <v>6366348.3000000007</v>
+      </c>
       <c r="O188" s="119"/>
       <c r="P188" s="125"/>
       <c r="Q188" s="1"/>
@@ -10450,12 +10491,8 @@
       <c r="J190" s="2"/>
       <c r="K190" s="2"/>
       <c r="L190" s="2"/>
-      <c r="M190" s="170" t="s">
-        <v>421</v>
-      </c>
-      <c r="N190" s="119">
-        <v>130000</v>
-      </c>
+      <c r="M190" s="2"/>
+      <c r="N190" s="119"/>
       <c r="O190" s="119"/>
       <c r="P190" s="125"/>
       <c r="Q190" s="1"/>
@@ -10474,10 +10511,10 @@
       <c r="K191" s="2"/>
       <c r="L191" s="2"/>
       <c r="M191" s="170" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="N191" s="119">
-        <v>98000</v>
+        <v>130000</v>
       </c>
       <c r="O191" s="119"/>
       <c r="P191" s="125"/>
@@ -10497,10 +10534,10 @@
       <c r="K192" s="2"/>
       <c r="L192" s="2"/>
       <c r="M192" s="170" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="N192" s="119">
-        <v>180000</v>
+        <v>98000</v>
       </c>
       <c r="O192" s="119"/>
       <c r="P192" s="125"/>
@@ -10519,10 +10556,11 @@
       <c r="J193" s="2"/>
       <c r="K193" s="2"/>
       <c r="L193" s="2"/>
-      <c r="M193" s="2"/>
-      <c r="N193" s="171">
-        <f>SUM(N190:N192)</f>
-        <v>408000</v>
+      <c r="M193" s="170" t="s">
+        <v>423</v>
+      </c>
+      <c r="N193" s="119">
+        <v>180000</v>
       </c>
       <c r="O193" s="119"/>
       <c r="P193" s="125"/>
@@ -10542,12 +10580,15 @@
       <c r="K194" s="2"/>
       <c r="L194" s="2"/>
       <c r="M194" s="2"/>
-      <c r="N194" s="119"/>
+      <c r="N194" s="171">
+        <f>SUM(N191:N193)</f>
+        <v>408000</v>
+      </c>
       <c r="O194" s="119"/>
       <c r="P194" s="125"/>
       <c r="Q194" s="1"/>
     </row>
-    <row r="195" spans="1:17" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A195" s="5"/>
       <c r="B195" s="5"/>
       <c r="C195" s="2"/>
@@ -10560,18 +10601,13 @@
       <c r="J195" s="2"/>
       <c r="K195" s="2"/>
       <c r="L195" s="2"/>
-      <c r="M195" s="172" t="s">
-        <v>424</v>
-      </c>
-      <c r="N195" s="173">
-        <f>SUM(N187+N190+N191+N192)</f>
-        <v>6779372.3000000007</v>
-      </c>
+      <c r="M195" s="2"/>
+      <c r="N195" s="119"/>
       <c r="O195" s="119"/>
       <c r="P195" s="125"/>
       <c r="Q195" s="1"/>
     </row>
-    <row r="196" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:17" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A196" s="5"/>
       <c r="B196" s="5"/>
       <c r="C196" s="2"/>
@@ -10584,20 +10620,25 @@
       <c r="J196" s="2"/>
       <c r="K196" s="2"/>
       <c r="L196" s="2"/>
-      <c r="M196" s="2"/>
-      <c r="N196" s="119"/>
+      <c r="M196" s="172" t="s">
+        <v>424</v>
+      </c>
+      <c r="N196" s="173">
+        <f>SUM(N188+N191+N192+N193)</f>
+        <v>6774348.3000000007</v>
+      </c>
       <c r="O196" s="119"/>
       <c r="P196" s="125"/>
       <c r="Q196" s="1"/>
     </row>
     <row r="197" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A197"/>
-      <c r="B197"/>
-      <c r="C197"/>
-      <c r="D197"/>
-      <c r="E197"/>
-      <c r="F197"/>
-      <c r="G197"/>
+      <c r="A197" s="5"/>
+      <c r="B197" s="5"/>
+      <c r="C197" s="2"/>
+      <c r="D197" s="4"/>
+      <c r="E197" s="3"/>
+      <c r="F197" s="3"/>
+      <c r="G197" s="2"/>
       <c r="H197" s="2"/>
       <c r="I197" s="2"/>
       <c r="J197" s="2"/>
@@ -10611,9 +10652,7 @@
     </row>
     <row r="198" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A198"/>
-      <c r="B198" t="s">
-        <v>18</v>
-      </c>
+      <c r="B198"/>
       <c r="C198"/>
       <c r="D198"/>
       <c r="E198"/>
@@ -10633,20 +10672,12 @@
     <row r="199" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A199"/>
       <c r="B199" t="s">
-        <v>17</v>
-      </c>
-      <c r="C199" t="s">
-        <v>16</v>
-      </c>
-      <c r="D199" t="s">
-        <v>15</v>
-      </c>
-      <c r="E199" t="s">
-        <v>14</v>
-      </c>
-      <c r="F199" t="s">
-        <v>13</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="C199"/>
+      <c r="D199"/>
+      <c r="E199"/>
+      <c r="F199"/>
       <c r="G199"/>
       <c r="H199" s="2"/>
       <c r="I199" s="2"/>
@@ -10661,23 +10692,22 @@
     </row>
     <row r="200" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A200"/>
-      <c r="B200">
-        <v>1</v>
+      <c r="B200" t="s">
+        <v>17</v>
       </c>
       <c r="C200" t="s">
-        <v>12</v>
-      </c>
-      <c r="D200">
-        <v>1</v>
-      </c>
-      <c r="E200">
-        <v>261000</v>
-      </c>
-      <c r="F200"/>
-      <c r="G200">
-        <f>E200*F200</f>
-        <v>0</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="D200" t="s">
+        <v>15</v>
+      </c>
+      <c r="E200" t="s">
+        <v>14</v>
+      </c>
+      <c r="F200" t="s">
+        <v>13</v>
+      </c>
+      <c r="G200"/>
       <c r="H200" s="2"/>
       <c r="I200" s="2"/>
       <c r="J200" s="2"/>
@@ -10692,16 +10722,16 @@
     <row r="201" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A201"/>
       <c r="B201">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C201" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D201">
         <v>1</v>
       </c>
       <c r="E201">
-        <v>88000</v>
+        <v>261000</v>
       </c>
       <c r="F201"/>
       <c r="G201">
@@ -10722,20 +10752,21 @@
     <row r="202" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A202"/>
       <c r="B202">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C202" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D202">
         <v>1</v>
       </c>
       <c r="E202">
-        <v>78000</v>
+        <v>88000</v>
       </c>
       <c r="F202"/>
       <c r="G202">
-        <v>75400</v>
+        <f>E202*F202</f>
+        <v>0</v>
       </c>
       <c r="H202" s="2"/>
       <c r="I202" s="2"/>
@@ -10751,21 +10782,20 @@
     <row r="203" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A203"/>
       <c r="B203">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C203" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D203">
         <v>1</v>
       </c>
       <c r="E203">
-        <v>182000</v>
+        <v>78000</v>
       </c>
       <c r="F203"/>
       <c r="G203">
-        <f>E203*F203</f>
-        <v>0</v>
+        <v>75400</v>
       </c>
       <c r="H203" s="2"/>
       <c r="I203" s="2"/>
@@ -10781,16 +10811,16 @@
     <row r="204" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A204"/>
       <c r="B204">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C204" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D204">
         <v>1</v>
       </c>
       <c r="E204">
-        <v>86000</v>
+        <v>182000</v>
       </c>
       <c r="F204"/>
       <c r="G204">
@@ -10811,16 +10841,16 @@
     <row r="205" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A205"/>
       <c r="B205">
+        <v>5</v>
+      </c>
+      <c r="C205" t="s">
         <v>6</v>
-      </c>
-      <c r="C205" t="s">
-        <v>5</v>
       </c>
       <c r="D205">
         <v>1</v>
       </c>
       <c r="E205">
-        <v>5000</v>
+        <v>86000</v>
       </c>
       <c r="F205"/>
       <c r="G205">
@@ -10838,234 +10868,252 @@
       <c r="P205" s="125"/>
       <c r="Q205" s="1"/>
     </row>
-    <row r="206" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A206"/>
-      <c r="B206" t="s">
-        <v>11</v>
-      </c>
-      <c r="C206"/>
-      <c r="D206"/>
-      <c r="E206"/>
+      <c r="B206">
+        <v>6</v>
+      </c>
+      <c r="C206" t="s">
+        <v>5</v>
+      </c>
+      <c r="D206">
+        <v>1</v>
+      </c>
+      <c r="E206">
+        <v>5000</v>
+      </c>
       <c r="F206"/>
       <c r="G206">
-        <f>SUM(G200:G205)</f>
-        <v>75400</v>
-      </c>
+        <f>E206*F206</f>
+        <v>0</v>
+      </c>
+      <c r="H206" s="2"/>
+      <c r="I206" s="2"/>
+      <c r="J206" s="2"/>
+      <c r="K206" s="2"/>
+      <c r="L206" s="2"/>
+      <c r="M206" s="2"/>
+      <c r="N206" s="119"/>
+      <c r="O206" s="119"/>
+      <c r="P206" s="125"/>
+      <c r="Q206" s="1"/>
     </row>
     <row r="207" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A207"/>
-      <c r="B207">
-        <v>1</v>
-      </c>
-      <c r="C207" t="s">
-        <v>10</v>
-      </c>
-      <c r="D207">
-        <v>1</v>
-      </c>
-      <c r="E207">
-        <v>210000</v>
-      </c>
+      <c r="B207" t="s">
+        <v>11</v>
+      </c>
+      <c r="C207"/>
+      <c r="D207"/>
+      <c r="E207"/>
       <c r="F207"/>
       <c r="G207">
-        <v>210000</v>
+        <f>SUM(G201:G206)</f>
+        <v>75400</v>
       </c>
     </row>
     <row r="208" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A208"/>
       <c r="B208">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C208" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D208">
         <v>1</v>
       </c>
       <c r="E208">
-        <v>160000</v>
+        <v>210000</v>
       </c>
       <c r="F208"/>
       <c r="G208">
-        <v>160000</v>
+        <v>210000</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209"/>
       <c r="B209">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C209" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D209">
         <v>1</v>
       </c>
       <c r="E209">
-        <v>83000</v>
+        <v>160000</v>
       </c>
       <c r="F209"/>
       <c r="G209">
-        <v>83000</v>
+        <v>160000</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210"/>
       <c r="B210">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C210" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D210">
         <v>1</v>
       </c>
       <c r="E210">
-        <v>167000</v>
+        <v>83000</v>
       </c>
       <c r="F210"/>
       <c r="G210">
-        <v>167000</v>
+        <v>83000</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211"/>
       <c r="B211">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C211" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D211">
         <v>1</v>
       </c>
       <c r="E211">
-        <v>78000</v>
+        <v>167000</v>
       </c>
       <c r="F211"/>
       <c r="G211">
-        <v>78000</v>
+        <v>167000</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212"/>
       <c r="B212">
+        <v>5</v>
+      </c>
+      <c r="C212" t="s">
         <v>6</v>
-      </c>
-      <c r="C212" t="s">
-        <v>5</v>
       </c>
       <c r="D212">
         <v>1</v>
       </c>
       <c r="E212">
-        <v>5000</v>
+        <v>78000</v>
       </c>
       <c r="F212"/>
       <c r="G212">
-        <v>5000</v>
+        <v>78000</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213"/>
-      <c r="B213" t="s">
-        <v>4</v>
-      </c>
-      <c r="C213"/>
-      <c r="D213"/>
-      <c r="E213"/>
+      <c r="B213">
+        <v>6</v>
+      </c>
+      <c r="C213" t="s">
+        <v>5</v>
+      </c>
+      <c r="D213">
+        <v>1</v>
+      </c>
+      <c r="E213">
+        <v>5000</v>
+      </c>
       <c r="F213"/>
       <c r="G213">
-        <f>SUM(G207:G212)</f>
-        <v>703000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214"/>
-      <c r="B214">
-        <v>1</v>
-      </c>
-      <c r="C214" t="s">
-        <v>3</v>
-      </c>
-      <c r="D214">
-        <v>9</v>
-      </c>
-      <c r="E214">
-        <v>19300</v>
-      </c>
+      <c r="B214" t="s">
+        <v>4</v>
+      </c>
+      <c r="C214"/>
+      <c r="D214"/>
+      <c r="E214"/>
       <c r="F214"/>
       <c r="G214">
-        <v>19300</v>
+        <f>SUM(G208:G213)</f>
+        <v>703000</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215"/>
       <c r="B215">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C215" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D215">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E215">
-        <v>28400</v>
+        <v>19300</v>
       </c>
       <c r="F215"/>
       <c r="G215">
-        <v>28400</v>
+        <v>19300</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216"/>
       <c r="B216">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C216" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D216">
         <v>1</v>
       </c>
       <c r="E216">
-        <v>30000</v>
+        <v>28400</v>
       </c>
       <c r="F216"/>
       <c r="G216">
-        <v>30000</v>
+        <v>28400</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217"/>
       <c r="B217">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C217" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D217">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E217">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="F217"/>
       <c r="G217">
-        <v>23000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218"/>
-      <c r="B218"/>
-      <c r="C218"/>
-      <c r="D218"/>
-      <c r="E218"/>
+      <c r="B218">
+        <v>4</v>
+      </c>
+      <c r="C218" t="s">
+        <v>0</v>
+      </c>
+      <c r="D218">
+        <v>3</v>
+      </c>
+      <c r="E218">
+        <v>23000</v>
+      </c>
       <c r="F218"/>
       <c r="G218">
-        <f>SUM(G214:G217)</f>
-        <v>100700</v>
+        <v>23000</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
@@ -11075,7 +11123,10 @@
       <c r="D219"/>
       <c r="E219"/>
       <c r="F219"/>
-      <c r="G219"/>
+      <c r="G219">
+        <f>SUM(G215:G218)</f>
+        <v>100700</v>
+      </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220"/>
@@ -11084,20 +11135,29 @@
       <c r="D220"/>
       <c r="E220"/>
       <c r="F220"/>
-      <c r="G220">
-        <f>SUM(G218,G213,G206)</f>
+      <c r="G220"/>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A221"/>
+      <c r="B221"/>
+      <c r="C221"/>
+      <c r="D221"/>
+      <c r="E221"/>
+      <c r="F221"/>
+      <c r="G221">
+        <f>SUM(G219,G214,G207)</f>
         <v>879100</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A3:Q3"/>
   <mergeCells count="6">
-    <mergeCell ref="A153:Q153"/>
-    <mergeCell ref="A163:Q163"/>
-    <mergeCell ref="A173:Q173"/>
+    <mergeCell ref="A154:Q154"/>
+    <mergeCell ref="A164:Q164"/>
+    <mergeCell ref="A174:Q174"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A36:Q36"/>
-    <mergeCell ref="A144:Q144"/>
+    <mergeCell ref="A145:Q145"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11299,7 +11359,7 @@
         <v>298000</v>
       </c>
       <c r="E13" s="29" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -11314,7 +11374,7 @@
         <v>30900</v>
       </c>
       <c r="E14" s="29" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -11504,20 +11564,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="197" t="s">
+      <c r="A1" s="202" t="s">
         <v>278</v>
       </c>
-      <c r="B1" s="198"/>
-      <c r="C1" s="198"/>
-      <c r="D1" s="198"/>
-      <c r="E1" s="198"/>
-      <c r="F1" s="198"/>
-      <c r="G1" s="198"/>
-      <c r="H1" s="198"/>
-      <c r="I1" s="198"/>
-      <c r="J1" s="198"/>
-      <c r="K1" s="198"/>
-      <c r="L1" s="198"/>
+      <c r="B1" s="203"/>
+      <c r="C1" s="203"/>
+      <c r="D1" s="203"/>
+      <c r="E1" s="203"/>
+      <c r="F1" s="203"/>
+      <c r="G1" s="203"/>
+      <c r="H1" s="203"/>
+      <c r="I1" s="203"/>
+      <c r="J1" s="203"/>
+      <c r="K1" s="203"/>
+      <c r="L1" s="203"/>
     </row>
     <row r="2" spans="1:12" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="113" t="s">
@@ -12539,20 +12599,20 @@
       <c r="L33" s="50"/>
     </row>
     <row r="34" spans="1:12" s="94" customFormat="1" ht="36.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="197" t="s">
+      <c r="A34" s="202" t="s">
         <v>193</v>
       </c>
-      <c r="B34" s="198"/>
-      <c r="C34" s="198"/>
-      <c r="D34" s="198"/>
-      <c r="E34" s="198"/>
-      <c r="F34" s="198"/>
-      <c r="G34" s="198"/>
-      <c r="H34" s="198"/>
-      <c r="I34" s="198"/>
-      <c r="J34" s="198"/>
-      <c r="K34" s="198"/>
-      <c r="L34" s="198"/>
+      <c r="B34" s="203"/>
+      <c r="C34" s="203"/>
+      <c r="D34" s="203"/>
+      <c r="E34" s="203"/>
+      <c r="F34" s="203"/>
+      <c r="G34" s="203"/>
+      <c r="H34" s="203"/>
+      <c r="I34" s="203"/>
+      <c r="J34" s="203"/>
+      <c r="K34" s="203"/>
+      <c r="L34" s="203"/>
     </row>
     <row r="35" spans="1:12" s="61" customFormat="1" ht="23.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="93" t="s">
@@ -14356,20 +14416,20 @@
       <c r="L89" s="50"/>
     </row>
     <row r="90" spans="1:12" s="44" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="197" t="s">
+      <c r="A90" s="202" t="s">
         <v>60</v>
       </c>
-      <c r="B90" s="198"/>
-      <c r="C90" s="198"/>
-      <c r="D90" s="198"/>
-      <c r="E90" s="198"/>
-      <c r="F90" s="198"/>
-      <c r="G90" s="198"/>
-      <c r="H90" s="198"/>
-      <c r="I90" s="198"/>
-      <c r="J90" s="198"/>
-      <c r="K90" s="198"/>
-      <c r="L90" s="198"/>
+      <c r="B90" s="203"/>
+      <c r="C90" s="203"/>
+      <c r="D90" s="203"/>
+      <c r="E90" s="203"/>
+      <c r="F90" s="203"/>
+      <c r="G90" s="203"/>
+      <c r="H90" s="203"/>
+      <c r="I90" s="203"/>
+      <c r="J90" s="203"/>
+      <c r="K90" s="203"/>
+      <c r="L90" s="203"/>
     </row>
     <row r="91" spans="1:12" s="44" customFormat="1" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="36" t="s">
@@ -14604,20 +14664,20 @@
       <c r="L98" s="1"/>
     </row>
     <row r="99" spans="1:12" s="6" customFormat="1" ht="32.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="197" t="s">
+      <c r="A99" s="202" t="s">
         <v>49</v>
       </c>
-      <c r="B99" s="198"/>
-      <c r="C99" s="198"/>
-      <c r="D99" s="198"/>
-      <c r="E99" s="198"/>
-      <c r="F99" s="198"/>
-      <c r="G99" s="198"/>
-      <c r="H99" s="198"/>
-      <c r="I99" s="198"/>
-      <c r="J99" s="198"/>
-      <c r="K99" s="198"/>
-      <c r="L99" s="198"/>
+      <c r="B99" s="203"/>
+      <c r="C99" s="203"/>
+      <c r="D99" s="203"/>
+      <c r="E99" s="203"/>
+      <c r="F99" s="203"/>
+      <c r="G99" s="203"/>
+      <c r="H99" s="203"/>
+      <c r="I99" s="203"/>
+      <c r="J99" s="203"/>
+      <c r="K99" s="203"/>
+      <c r="L99" s="203"/>
     </row>
     <row r="100" spans="1:12" s="6" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="36" t="s">
@@ -14857,20 +14917,20 @@
       <c r="L108" s="1"/>
     </row>
     <row r="109" spans="1:12" s="6" customFormat="1" ht="32.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="197" t="s">
+      <c r="A109" s="202" t="s">
         <v>48</v>
       </c>
-      <c r="B109" s="198"/>
-      <c r="C109" s="198"/>
-      <c r="D109" s="198"/>
-      <c r="E109" s="198"/>
-      <c r="F109" s="198"/>
-      <c r="G109" s="198"/>
-      <c r="H109" s="198"/>
-      <c r="I109" s="198"/>
-      <c r="J109" s="198"/>
-      <c r="K109" s="198"/>
-      <c r="L109" s="198"/>
+      <c r="B109" s="203"/>
+      <c r="C109" s="203"/>
+      <c r="D109" s="203"/>
+      <c r="E109" s="203"/>
+      <c r="F109" s="203"/>
+      <c r="G109" s="203"/>
+      <c r="H109" s="203"/>
+      <c r="I109" s="203"/>
+      <c r="J109" s="203"/>
+      <c r="K109" s="203"/>
+      <c r="L109" s="203"/>
     </row>
     <row r="110" spans="1:12" s="6" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="36" t="s">
@@ -15110,20 +15170,20 @@
       <c r="L118" s="1"/>
     </row>
     <row r="119" spans="1:12" s="6" customFormat="1" ht="32.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="197" t="s">
+      <c r="A119" s="202" t="s">
         <v>36</v>
       </c>
-      <c r="B119" s="198"/>
-      <c r="C119" s="198"/>
-      <c r="D119" s="198"/>
-      <c r="E119" s="198"/>
-      <c r="F119" s="198"/>
-      <c r="G119" s="198"/>
-      <c r="H119" s="198"/>
-      <c r="I119" s="198"/>
-      <c r="J119" s="198"/>
-      <c r="K119" s="198"/>
-      <c r="L119" s="198"/>
+      <c r="B119" s="203"/>
+      <c r="C119" s="203"/>
+      <c r="D119" s="203"/>
+      <c r="E119" s="203"/>
+      <c r="F119" s="203"/>
+      <c r="G119" s="203"/>
+      <c r="H119" s="203"/>
+      <c r="I119" s="203"/>
+      <c r="J119" s="203"/>
+      <c r="K119" s="203"/>
+      <c r="L119" s="203"/>
     </row>
     <row r="120" spans="1:12" s="6" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="36" t="s">
